--- a/affilMatch.xlsx
+++ b/affilMatch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D306"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,17 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Candidates for matching</t>
+          <t>Matched openAIRE names</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Matched openAIRE names</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Similarity score</t>
+          <t>ROR</t>
         </is>
       </c>
     </row>
@@ -468,12 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universit']</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01y0j0j86']]</t>
         </is>
       </c>
     </row>
@@ -485,17 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['shaanxi universit science technology', 'college bioresources chemical materials engineering']</t>
+          <t>['shaanxi universit science technology']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['shaanxi universit science technology']</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/034t3zs45']]</t>
         </is>
       </c>
     </row>
@@ -507,17 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['school mechanical engineering automation', 'harbin institute technology']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01yqg2h08']]</t>
         </is>
       </c>
     </row>
@@ -534,12 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['shenzhen polytechnic']</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00d2w9g53']]</t>
         </is>
       </c>
     </row>
@@ -556,12 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['shenzhen universit']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01vy4gh70']]</t>
         </is>
       </c>
     </row>
@@ -573,17 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['univ alabama birmingham']</t>
+          <t>['universit alabama birmingham']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['universit alabama birmingham']</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0.5]</t>
+          <t>[['https://ror.org/008s83205']]</t>
         </is>
       </c>
     </row>
@@ -595,17 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['univ colorado denver']</t>
+          <t>['universidad colorado en denver']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['universidad colorado en denver']</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[0.57]</t>
+          <t>[['https://ror.org/02hh7en24']]</t>
         </is>
       </c>
     </row>
@@ -622,12 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['aksaray universit']</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/026db3d50']]</t>
         </is>
       </c>
     </row>
@@ -639,17 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['the cooperative research center vaccine technology', 'royal brisbane hospital']</t>
+          <t>['royal brisbane womens hospital']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['royal brisbane womens hospital']</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/05p52kj31']]</t>
         </is>
       </c>
     </row>
@@ -666,12 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['masaryk universit']</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02j46qs45']]</t>
         </is>
       </c>
     </row>
@@ -688,12 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -710,12 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['national institute child health human development']</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04byxyr05']]</t>
         </is>
       </c>
     </row>
@@ -732,12 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['national institute arthritis musculoskeletal skin diseases']</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/006zn3t30']]</t>
         </is>
       </c>
     </row>
@@ -754,12 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['anhui medical universit']</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03xb04968']]</t>
         </is>
       </c>
     </row>
@@ -776,12 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['chulalongkorn universit']</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/028wp3y58']]</t>
         </is>
       </c>
     </row>
@@ -798,12 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['eastern regional research center']</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/052v5pn20']]</t>
         </is>
       </c>
     </row>
@@ -820,12 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['presidency universit']</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04xgbph11']]</t>
         </is>
       </c>
     </row>
@@ -842,12 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['texas am universit']</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01f5ytq51']]</t>
         </is>
       </c>
     </row>
@@ -859,17 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['marmara universit', 'faculty health sciences']</t>
+          <t>['marmara universit']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['marmara universit']</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02kswqa67']]</t>
         </is>
       </c>
     </row>
@@ -886,12 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['tottori universit']</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/024yc3q36']]</t>
         </is>
       </c>
     </row>
@@ -908,12 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['tottori universit']</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/024yc3q36']]</t>
         </is>
       </c>
     </row>
@@ -930,12 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['georgian college']</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04s2jm085']]</t>
         </is>
       </c>
     </row>
@@ -947,17 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['toronto metropolitan universit']</t>
+          <t>['universit toronto']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['universit toronto']</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>[0.75]</t>
+          <t>[['https://ror.org/03dbr7087']]</t>
         </is>
       </c>
     </row>
@@ -974,12 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['curtin universit']</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02n415q13']]</t>
         </is>
       </c>
     </row>
@@ -991,17 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['state key laboratory fine chemicals', 'dalian universit technology']</t>
+          <t>['dalian universit technology']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['dalian universit technology']</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/023hj5876']]</t>
         </is>
       </c>
     </row>
@@ -1013,17 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['tulane regional primate research center', 'tulane universit health sciences']</t>
+          <t>['tulane universit']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['tulane universit']</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>[0.53]</t>
+          <t>[['https://ror.org/04vmvtb21']]</t>
         </is>
       </c>
     </row>
@@ -1040,12 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -1062,12 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['universit porto']</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/043pwc612']]</t>
         </is>
       </c>
     </row>
@@ -1079,17 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['centre recherches politiques sciences po', 'institut detudes politiques paris paris france']</t>
+          <t>['centre recherches politiques sciences po']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['centre recherches politiques sciences po']</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0266y7j75']]</t>
         </is>
       </c>
     </row>
@@ -1101,17 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['the universit chicago httpsdxdoiorg2462']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
         </is>
       </c>
     </row>
@@ -1123,17 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['universit california san']</t>
+          <t>['universit california san diego school medicine']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['universit california san diego school medicine']</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>[0.87]</t>
+          <t>[['https://ror.org/01vf2g217']]</t>
         </is>
       </c>
     </row>
@@ -1150,12 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['universit toronto']</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03dbr7087']]</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['college science', 'universit shanghai science']</t>
+          <t>['universit shanghai science technology']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['universit shanghai science technology']</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>[0.87]</t>
+          <t>[['https://ror.org/00ay9v204']]</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['universit ulm']</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/032000t02']]</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['national universit sciences x0026']</t>
+          <t>['national universit']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['national universit']</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>[0.43]</t>
+          <t>[['https://ror.org/000a8qk84']]</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['vrije universit medical center', 'dr tangelder is now laboratory physiology', 'maastricht universit', 'rijnland hospital']</t>
+          <t>['maastricht universit']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['maastricht universit']</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02jz4aj89']]</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['universit di bari', 'istituto di chimica dei composti organometalliciiccom']</t>
+          <t>['universit bari', 'istituto di chimica dei composti organometallici']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['universit bari', 'istituto di chimica dei composti organometallici']</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>[0.816496580927726, 0.9128709291752769]</t>
+          <t>[['https://ror.org/027ynra39'], ['https://ror.org/02fkw1114']]</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['research center uppsala universit uppsala sweden']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>[0.7499999999999998]</t>
+          <t>[['https://ror.org/048a87296']]</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['radboud universit medical center']</t>
+          <t>['universit medical center']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['universit medical center']</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/036pt7h44']]</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['department medicine iii universit heidelberg heidelberg']</t>
+          <t>['universit heidelberg']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['universit heidelberg']</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/04b85d432']]</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['immunity cardiovascular disease universit sheffield sheffield']</t>
+          <t>['sheffield universit']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['sheffield universit']</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>[0.67]</t>
+          <t>[['https://ror.org/05krs5044']]</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['medical sciences uppsala universit uppsala sweden']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>[0.7499999999999998]</t>
+          <t>[['https://ror.org/048a87296']]</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['ritsumeikan universit']</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0197nmd03']]</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['universit tokyo', 'chiba universit graduate school']</t>
+          <t>['universit tokyo', 'chiba universit']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['universit tokyo', 'chiba universit']</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>[1, 0.7071067811865475]</t>
+          <t>[['https://ror.org/00dgyv454', 'https://ror.org/057zh3y96', 'https://ror.org/01etn5q21'], ['https://ror.org/01hjzeq58']]</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['rutgers universit']</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05vt9qd57']]</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['petrozavodsk state universit city clinical']</t>
+          <t>['petrozavodsk state universit']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['petrozavodsk state universit']</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>[0.7745966692414834]</t>
+          <t>[['https://ror.org/0176aa147']]</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['showa universit']</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04mzk4q39']]</t>
         </is>
       </c>
     </row>
@@ -1502,12 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases']</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/043z4tv69']]</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['maxplanckinstitute', 'dresden universit technology', 'friedrichalexander universit erlangennuremberg']</t>
+          <t>['universit technology', 'universit erlangennuremberg']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['universit technology', 'universit erlangennuremberg']</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>[0.816496580927726, 0.816496580927726]</t>
+          <t>[['https://ror.org/03gbw6p94'], ['https://ror.org/00f7hpc57']]</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['gazi universit']</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/054xkpr46']]</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['gazi universit']</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/054xkpr46']]</t>
         </is>
       </c>
     </row>
@@ -1590,12 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['henan polytechnic universit']</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05vr1c885']]</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['henan polytechnic universit']</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05vr1c885']]</t>
         </is>
       </c>
     </row>
@@ -1634,12 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['carnegie mellon universit']</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05x2bcf33']]</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['nanjing universit', 'state key laboratory novel software technology']</t>
+          <t>['nanjing universit']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['nanjing universit']</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01rxvg760']]</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['zhejiang universit', 'school software technology']</t>
+          <t>['zhejiang universit']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['zhejiang universit']</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00a2xv884']]</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['northeast petroleum universit', 'school petroleum engineering']</t>
+          <t>['northeast petroleum universit']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['northeast petroleum universit']</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03net5943']]</t>
         </is>
       </c>
     </row>
@@ -1722,12 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['universit illinois chicago']</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02mpq6x41', 'https://ror.org/024mw5h28']]</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['technische universit munchen']</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02kkvpp62']]</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['hirosaki universit']</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02syg0q74']]</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['national research nuclear universit mephi']</t>
+          <t>['seversky technological institute branch national research nuclear universit mephi']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['seversky technological institute branch national research nuclear universit mephi']</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>[0.84]</t>
+          <t>[['https://ror.org/00se1zw92']]</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['state oil industry universit']</t>
+          <t>['azerbaijan state universit oil industry']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['azerbaijan state universit oil industry']</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/05mmnns11']]</t>
         </is>
       </c>
     </row>
@@ -1827,17 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['universit chicago', 'ben may institute']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
         </is>
       </c>
     </row>
@@ -1849,17 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['nsf center advanced cementbased materials', 'northwestern univ']</t>
+          <t>['universit northwestern']</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['universit northwestern']</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>[0.28]</t>
+          <t>[['https://ror.org/019t2rq07']]</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['northwestern univ']</t>
+          <t>['universit northwestern']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['universit northwestern']</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>[0.35]</t>
+          <t>[['https://ror.org/019t2rq07']]</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['nsf center advanced cementbased materials', 'northwestern univ']</t>
+          <t>['universit northwestern']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['universit northwestern']</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>[0.28]</t>
+          <t>[['https://ror.org/019t2rq07']]</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['national institute statistical sciences']</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03kcsjh25']]</t>
         </is>
       </c>
     </row>
@@ -1942,12 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['universit notre dame']</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00mkhxb43']]</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['school medicine from', 'universit pittsburgh']</t>
+          <t>['universit pittsburgh']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['universit pittsburgh']</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0019bf448', 'https://ror.org/0242vta36', 'https://ror.org/01an3r305']]</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['institute state law russian academy sciences']</t>
+          <t>['federal state institution science institute state law russian academy sciences']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['federal state institution science institute state law russian academy sciences']</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>[0.8249579113843056]</t>
+          <t>[['https://ror.org/00g6nvj03']]</t>
         </is>
       </c>
     </row>
@@ -2003,17 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['utrecht universit', 'bijvoet center biomolecular research', 'vrije universit']</t>
+          <t>['utrecht universit', 'vrije universit']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['utrecht universit', 'vrije universit']</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
+          <t>[['https://ror.org/04pp8hn57'], ['008xxew50', 'https://ror.org/008xxew50']]</t>
         </is>
       </c>
     </row>
@@ -2025,17 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['universit hospital']</t>
+          <t>['copenhagen universit hospital']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['copenhagen universit hospital']</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>[0.87]</t>
+          <t>[['https://ror.org/05bpbnx46']]</t>
         </is>
       </c>
     </row>
@@ -2052,12 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['universit washington']</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00cvxb145']]</t>
         </is>
       </c>
     </row>
@@ -2074,12 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['universit zu koln']</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00rcxh774']]</t>
         </is>
       </c>
     </row>
@@ -2096,12 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['new york universit school medicine']</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05wthjx48']]</t>
         </is>
       </c>
     </row>
@@ -2113,17 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['leipzig universit institute economic']</t>
+          <t>['leipzig universit']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['leipzig universit']</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>[0.61]</t>
+          <t>[['https://ror.org/03s7gtk40']]</t>
         </is>
       </c>
     </row>
@@ -2135,17 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['comprehensive disease control prevention center inner mongolia autonomous region']</t>
+          <t>['inner mongolia autonomous region comprehensive disease prevention control center']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['inner mongolia autonomous region comprehensive disease prevention control center']</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02xy6bg05']]</t>
         </is>
       </c>
     </row>
@@ -2157,17 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['hospital capital medical universit beijing chaoyang']</t>
+          <t>['capital medical universit']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['capital medical universit']</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>[0.7071067811865477]</t>
+          <t>[['https://ror.org/013xs5b60']]</t>
         </is>
       </c>
     </row>
@@ -2179,17 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['college criminal justice', 'naif arab universit security sciences']</t>
+          <t>['naif arab universit security sciences']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['naif arab universit security sciences']</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/049c46160']]</t>
         </is>
       </c>
     </row>
@@ -2206,12 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['universit southeastern norway']</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05ecg5h20']]</t>
         </is>
       </c>
     </row>
@@ -2223,17 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['new york universit grossman school']</t>
+          <t>['new york universit']</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['new york universit']</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>[0.83]</t>
+          <t>[['https://ror.org/0190ak572']]</t>
         </is>
       </c>
     </row>
@@ -2245,17 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['gkt school biomedical sciences', 'kings college london', 'centre neuroscience research']</t>
+          <t>['kings college london']</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['kings college london']</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0220mzb33']]</t>
         </is>
       </c>
     </row>
@@ -2267,17 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['tokushima universit']</t>
+          <t>['universit tokushima']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['universit tokushima']</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/044vy1d05']]</t>
         </is>
       </c>
     </row>
@@ -2294,12 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['hitotsubashi universit']</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04jqj7p05']]</t>
         </is>
       </c>
     </row>
@@ -2316,12 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['freie universit berlin']</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/046ak2485']]</t>
         </is>
       </c>
     </row>
@@ -2338,12 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['shandong universit science technology']</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04gtjhw98']]</t>
         </is>
       </c>
     </row>
@@ -2360,12 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['qufu normal universit']</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03ceheh96']]</t>
         </is>
       </c>
     </row>
@@ -2382,12 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['universit michigan']</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00jmfr291']]</t>
         </is>
       </c>
     </row>
@@ -2399,17 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['tokushima universit']</t>
+          <t>['universit tokushima']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['universit tokushima']</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/044vy1d05']]</t>
         </is>
       </c>
     </row>
@@ -2426,12 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['universidade federal minas gerais']</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0176yjw32']]</t>
         </is>
       </c>
     </row>
@@ -2448,12 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['universit tennessee']</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/020f3ap87', 'https://ror.org/0563nxn44', 'https://ror.org/00xzqjh13']]</t>
         </is>
       </c>
     </row>
@@ -2465,17 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['pritzker school medicine', 'the universit chicago']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
         </is>
       </c>
     </row>
@@ -2487,17 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['manipal universit', 'department information technology']</t>
+          <t>['manipal universit', 'department electronics information technology']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['manipal universit', 'department electronics information technology']</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[['https://ror.org/02xzytt36'], ['https://ror.org/02z31cn83']]</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['college artificial intelligence', 'nankai universit']</t>
+          <t>['nankai universit']</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['nankai universit']</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01y1kjr75']]</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['tsinghua universit']</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03cve4549', 'https://ror.org/050nfgr37']]</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['universit connecticut health', 'center biomedical imaging technology']</t>
+          <t>['universit connecticut health center']</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['universit connecticut health center']</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>[0.77]</t>
+          <t>[['https://ror.org/02kzs4y22']]</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['universit iowa college']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/036jqmy94']]</t>
         </is>
       </c>
     </row>
@@ -2602,12 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['national institute integrative medicine']</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00zxymv65']]</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['chechen state universit named after']</t>
+          <t>['chechen state universit']</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['chechen state universit']</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>[0.7745966692414834]</t>
+          <t>[['https://ror.org/004ze6w33']]</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['dagestan state universit']</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01vw69t89']]</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health from']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -2690,12 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/036jqmy94']]</t>
         </is>
       </c>
     </row>
@@ -2712,12 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['beijing universit technology']</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/037b1pp87', 'https://ror.org/03xgzn792', 'https://ror.org/02egmk993']]</t>
         </is>
       </c>
     </row>
@@ -2734,12 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['carleton universit']</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02qtvee93']]</t>
         </is>
       </c>
     </row>
@@ -2756,12 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['tianjin universit']</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/012tb2g32']]</t>
         </is>
       </c>
     </row>
@@ -2773,17 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['the international research centre advancement health communication', 'hong kong polytechnic universit']</t>
+          <t>['hong kong polytechnic universit']</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['hong kong polytechnic universit']</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00q4vv597', 'https://ror.org/0030zas98']]</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['zealand universit hospital roskilde']</t>
+          <t>['zealand universit hospital']</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['zealand universit hospital']</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>[0.55]</t>
+          <t>[['https://ror.org/00363z010']]</t>
         </is>
       </c>
     </row>
@@ -2822,12 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>['queens universit']</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02y72wh86']]</t>
         </is>
       </c>
     </row>
@@ -2844,12 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['queens universit']</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02y72wh86']]</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>['universit stuttgart']</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04vnq7t77']]</t>
         </is>
       </c>
     </row>
@@ -2888,12 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>['max planck institute intelligent systems']</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04fq9j139']]</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['inner mongolia agricultural universit', 'mechanical electrical engineering college']</t>
+          <t>['inner mongolia agricultural universit', 'shenyang mechanical electrical engineering college']</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>['inner mongolia agricultural universit', 'shenyang mechanical electrical engineering college']</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>[1, 0.8944271909999159]</t>
+          <t>[['https://ror.org/015d0jq83'], ['https://ror.org/00d7f8730']]</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['universit california']</t>
+          <t>['universit california san diego']</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['universit california san diego']</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>[0.76]</t>
+          <t>[['https://ror.org/0168r3w48']]</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['engineering dalian maritime universit dalian 116085']</t>
+          <t>['dalian maritime universit']</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['dalian maritime universit']</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>[0.67]</t>
+          <t>[['https://ror.org/002b7nr53']]</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['universit colorado medical']</t>
+          <t>['universit colorado anschutz medical campus']</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['universit colorado anschutz medical campus']</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>[0.7745966692414834]</t>
+          <t>[['https://ror.org/03wmf1y16']]</t>
         </is>
       </c>
     </row>
@@ -2998,12 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/https://ror.org/040gcmg81', 'https://ror.org/040gcmg81']]</t>
         </is>
       </c>
     </row>
@@ -3015,17 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['kutahya dumlupinar universit']</t>
+          <t>['dumlupinar universit']</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['dumlupinar universit']</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/03jtrja12']]</t>
         </is>
       </c>
     </row>
@@ -3037,17 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['laboratory immunology', 'center biologics evaluation research review']</t>
+          <t>['center biologics evaluation research']</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['center biologics evaluation research']</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/02nr3fr97']]</t>
         </is>
       </c>
     </row>
@@ -3059,17 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['ufzhelmholtz centre environmental research']</t>
+          <t>['helmholtz centre environmental research']</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['helmholtz centre environmental research']</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/000h6jb29']]</t>
         </is>
       </c>
     </row>
@@ -3081,17 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['univ montpellier', 'cnrs']</t>
+          <t>['montpellier 1 universit', 'cnrs']</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['montpellier 1 universit', 'cnrs']</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>[0.53, 1]</t>
+          <t>[['https://ror.org/051escj72'], ['https://ror.org/02feahw73', 'https://ror.org/00675rp98']]</t>
         </is>
       </c>
     </row>
@@ -3108,12 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['universit tubingen']</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03a1kwz48']]</t>
         </is>
       </c>
     </row>
@@ -3125,17 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['college resources environment', 'universit chinese academy']</t>
+          <t>['universit chinese academy sciences']</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['universit chinese academy sciences']</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/05qbk4x57']]</t>
         </is>
       </c>
     </row>
@@ -3152,12 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['martin luther universit hallewittenberg']</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05gqaka33']]</t>
         </is>
       </c>
     </row>
@@ -3174,12 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['universit leipzig']</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/028hv5492']]</t>
         </is>
       </c>
     </row>
@@ -3191,17 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['resources biodiversity jingdezhen universit jingdezhen china']</t>
+          <t>['jingdezhen universit']</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['jingdezhen universit']</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>[0.7499999999999998]</t>
+          <t>[['https://ror.org/012czx379']]</t>
         </is>
       </c>
     </row>
@@ -3218,12 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['leipzig universit']</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03s7gtk40']]</t>
         </is>
       </c>
     </row>
@@ -3235,17 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['forestry jiangxi agricultural universit nanchang china']</t>
+          <t>['jiangxi agricultural universit']</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['jiangxi agricultural universit']</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>[0.65]</t>
+          <t>[['https://ror.org/00dc7s858']]</t>
         </is>
       </c>
     </row>
@@ -3257,17 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['national research station universit chinese academy']</t>
+          <t>['national research universit']</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['national research universit']</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>[0.7071067811865477]</t>
+          <t>[['https://ror.org/05sa6gg87']]</t>
         </is>
       </c>
     </row>
@@ -3279,17 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health from']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -3301,17 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['national institutes health from']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -3323,17 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health from']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -3350,12 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['universit cantabria']</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/046ffzj20']]</t>
         </is>
       </c>
     </row>
@@ -3367,17 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['osaka universit graduate school']</t>
+          <t>['osaka graduate universit']</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['osaka graduate universit']</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>[0.77]</t>
+          <t>[['https://ror.org/04a8t1e98']]</t>
         </is>
       </c>
     </row>
@@ -3394,12 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['universit konstanz']</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0546hnb39']]</t>
         </is>
       </c>
     </row>
@@ -3411,17 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['johns hopkins universit', 'johns hopkins asthma allergy center']</t>
+          <t>['johns hopkins universit']</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['johns hopkins universit']</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00za53h95']]</t>
         </is>
       </c>
     </row>
@@ -3433,17 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['civil aviation flight universit china', 'college computer science']</t>
+          <t>['civil aviation flight universit china']</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>['civil aviation flight universit china']</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01xyb1v19']]</t>
         </is>
       </c>
     </row>
@@ -3455,17 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['universit california']</t>
+          <t>['universit california los angeles']</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['universit california los angeles']</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>[0.82]</t>
+          <t>[['https://ror.org/046rm7j60']]</t>
         </is>
       </c>
     </row>
@@ -3482,12 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['suleyman demirel universit']</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02s8x5a25']]</t>
         </is>
       </c>
     </row>
@@ -3504,12 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['columbia universit']</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00hj8s172']]</t>
         </is>
       </c>
     </row>
@@ -3526,12 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['cornell universit']</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05bnh6r87']]</t>
         </is>
       </c>
     </row>
@@ -3548,12 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>['shanghai jiao tong universit']</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0220qvk04']]</t>
         </is>
       </c>
     </row>
@@ -3565,17 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology', 'laboratory information decision systems']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/042nb2s44']]</t>
         </is>
       </c>
     </row>
@@ -3592,12 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>['uniformed services universit health sciences']</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04r3kq386']]</t>
         </is>
       </c>
     </row>
@@ -3614,12 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['pusan national universit']</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01an57a31']]</t>
         </is>
       </c>
     </row>
@@ -3631,17 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['materials sun yatsen universit guangzhou guangdong']</t>
+          <t>['sun yatsen universit']</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>['sun yatsen universit']</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>[0.7071067811865477]</t>
+          <t>[['https://ror.org/0064kty71']]</t>
         </is>
       </c>
     </row>
@@ -3653,17 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['south china normal universit guangzhou 510006']</t>
+          <t>['south china normal universit']</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['south china normal universit']</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>[0.78]</t>
+          <t>[['https://ror.org/01kq0pv72']]</t>
         </is>
       </c>
     </row>
@@ -3675,17 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['south china normal universit guangzhou 510006']</t>
+          <t>['south china normal universit']</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>['south china normal universit']</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>[0.61]</t>
+          <t>[['https://ror.org/01kq0pv72']]</t>
         </is>
       </c>
     </row>
@@ -3697,17 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['engineering sun yatsen universit guangzhou 510275']</t>
+          <t>['sun yatsen universit']</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>['sun yatsen universit']</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>[0.7071067811865477]</t>
+          <t>[['https://ror.org/0064kty71']]</t>
         </is>
       </c>
     </row>
@@ -3719,17 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['national institute dental research', 'national institutes health from', 'district columbia']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>[0.87]</t>
+          <t>[['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -3741,17 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['district columbia', 'the george washington universit medical center']</t>
+          <t>['universit washington medical center']</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['universit washington medical center']</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>[0.67]</t>
+          <t>[['https://ror.org/00wbzw723']]</t>
         </is>
       </c>
     </row>
@@ -3768,12 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['universit palermo']</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04fz79c74']]</t>
         </is>
       </c>
     </row>
@@ -3785,17 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['universit erlangennurnberg', 'faculty medicine']</t>
+          <t>['universit erlangen']</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>['universit erlangen']</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>[0.43]</t>
+          <t>[['https://ror.org/0030f2a11']]</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
@@ -3829,17 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['bcn medtech', 'universit pompeu fabra']</t>
+          <t>['universit pompeu fabra']</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['universit pompeu fabra']</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04n0g0b29']]</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['universit pompeu fabra']</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04n0g0b29']]</t>
         </is>
       </c>
     </row>
@@ -3878,12 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>['virginia tech']</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02smfhw86']]</t>
         </is>
       </c>
     </row>
@@ -3895,17 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['univ manitoba', 'future univ']</t>
+          <t>['universit manitoba', 'future universit']</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>['universit manitoba', 'future universit']</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475, 0.7071067811865475]</t>
+          <t>[['https://ror.org/02gfys938'], ['https://ror.org/0092t1z08']]</t>
         </is>
       </c>
     </row>
@@ -3917,17 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['univ manitoba']</t>
+          <t>['universit manitoba']</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>['universit manitoba']</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/02gfys938']]</t>
         </is>
       </c>
     </row>
@@ -3939,17 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['salesian polytechnic universit']</t>
+          <t>['salesian universit']</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>['salesian universit']</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/04vhngq09']]</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['universit heidelberg']</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04b85d432']]</t>
         </is>
       </c>
     </row>
@@ -3983,17 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['graphic era hill universit']</t>
+          <t>['graphic era universit']</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['graphic era universit']</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/03wqgqd89']]</t>
         </is>
       </c>
     </row>
@@ -4010,12 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['graphic era universit']</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03wqgqd89']]</t>
         </is>
       </c>
     </row>
@@ -4032,12 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit']</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03gn5cg19']]</t>
         </is>
       </c>
     </row>
@@ -4049,17 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['universit maryland', 'school medicine']</t>
+          <t>['universit maryland baltimore county']</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['universit maryland baltimore county']</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/02qskvh78']]</t>
         </is>
       </c>
     </row>
@@ -4076,12 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>['far east universit']</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03ms7mr17']]</t>
         </is>
       </c>
     </row>
@@ -4098,12 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['national institute immunology']</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04fhee747']]</t>
         </is>
       </c>
     </row>
@@ -4115,17 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['universit iowa college']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/036jqmy94']]</t>
         </is>
       </c>
     </row>
@@ -4142,12 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['centre national la recherche scientifique']</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02feahw73', 'https://ror.org/00675rp98']]</t>
         </is>
       </c>
     </row>
@@ -4164,12 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['duke universit medical center']</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03njmea73', 'https://ror.org/04bct7p84']]</t>
         </is>
       </c>
     </row>
@@ -4186,12 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['childrens hospital medical center']</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04j36h363']]</t>
         </is>
       </c>
     </row>
@@ -4203,17 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['universit medical school']</t>
+          <t>['universit minnesota medical school']</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['universit minnesota medical school']</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>[0.61]</t>
+          <t>[['https://ror.org/04jnprq39']]</t>
         </is>
       </c>
     </row>
@@ -4225,17 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['washington universit school medicine']</t>
+          <t>['universit washington school medicine']</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['universit washington school medicine']</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03ymk3103']]</t>
         </is>
       </c>
     </row>
@@ -4252,12 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['chonnam national universit']</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05kzjxq56', 'https://ror.org/0227as991']]</t>
         </is>
       </c>
     </row>
@@ -4274,12 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>['chonnam national universit']</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05kzjxq56', 'https://ror.org/0227as991']]</t>
         </is>
       </c>
     </row>
@@ -4296,12 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>['universit toronto']</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03dbr7087']]</t>
         </is>
       </c>
     </row>
@@ -4313,17 +3433,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['international research center neurointelligence', 'the universit tokyo']</t>
+          <t>['universit tokyo']</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['universit tokyo']</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/00dgyv454', 'https://ror.org/057zh3y96', 'https://ror.org/01etn5q21']]</t>
         </is>
       </c>
     </row>
@@ -4340,12 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>['ecole normale superieure', 'laboratoire sciences cognitives psycholinguistique']</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
+          <t>[['https://ror.org/05a0dhs15'], ['https://ror.org/05fvhm231']]</t>
         </is>
       </c>
     </row>
@@ -4357,17 +3467,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['odesa national maritime universit']</t>
+          <t>['national universit']</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['national universit']</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/000a8qk84']]</t>
         </is>
       </c>
     </row>
@@ -4384,12 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>['odessa national maritime universit']</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05qze6v15']]</t>
         </is>
       </c>
     </row>
@@ -4406,12 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['pohang universit science technology']</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04xysgw12']]</t>
         </is>
       </c>
     </row>
@@ -4423,17 +3518,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['universit illinois from']</t>
+          <t>['universit illinois']</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['universit illinois']</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/047426m28']]</t>
         </is>
       </c>
     </row>
@@ -4445,17 +3535,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['universit miami school']</t>
+          <t>['universit miami']</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['universit miami']</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>[0.59]</t>
+          <t>[['https://ror.org/02dgjyy92']]</t>
         </is>
       </c>
     </row>
@@ -4472,12 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['universit zagreb']</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00mv6sv71']]</t>
         </is>
       </c>
     </row>
@@ -4489,17 +3569,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['hse universit']</t>
+          <t>['universit']</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['universit']</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/04rr26086']]</t>
         </is>
       </c>
     </row>
@@ -4516,12 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>['universit malaga']</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/036b2ww28']]</t>
         </is>
       </c>
     </row>
@@ -4533,17 +3603,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['universit maryland college']</t>
+          <t>['universit maryland college park']</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['universit maryland college park']</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>[0.76]</t>
+          <t>[['https://ror.org/047s2c258']]</t>
         </is>
       </c>
     </row>
@@ -4560,12 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>['universit memphis']</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01cq23130']]</t>
         </is>
       </c>
     </row>
@@ -4582,12 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
@@ -4604,12 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
@@ -4626,12 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>['simon fraser universit']</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0213rcc28']]</t>
         </is>
       </c>
     </row>
@@ -4648,12 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['almetyevsk state oil institute']</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00g1je163']]</t>
         </is>
       </c>
     </row>
@@ -4665,17 +3705,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['universit texas medical']</t>
+          <t>['universit texas medical branch galveston']</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['universit texas medical branch galveston']</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/016tfm930']]</t>
         </is>
       </c>
     </row>
@@ -4692,12 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['bharathiar universit']</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04fht8c22']]</t>
         </is>
       </c>
     </row>
@@ -4709,17 +3739,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['national universit uzbekistan named']</t>
+          <t>['national universit uzbekistan']</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>['national universit uzbekistan']</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/011647w73']]</t>
         </is>
       </c>
     </row>
@@ -4731,17 +3756,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['new england medical center']</t>
+          <t>['tuftsnew england medical center']</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['tuftsnew england medical center']</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/002hsbm82']]</t>
         </is>
       </c>
     </row>
@@ -4758,12 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['adıyaman universit']</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02s4gkg68']]</t>
         </is>
       </c>
     </row>
@@ -4775,17 +3790,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['universit washington fred']</t>
+          <t>['universit washington']</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>['universit washington']</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/00cvxb145']]</t>
         </is>
       </c>
     </row>
@@ -4797,17 +3807,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['postgraduate jinzhou medical universit beijing china']</t>
+          <t>['china medical universit']</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>['china medical universit']</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>[0.7071067811865477]</t>
+          <t>[['https://ror.org/00v408z34']]</t>
         </is>
       </c>
     </row>
@@ -4824,12 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>['siberian branch russian academy sciences']</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02frkq021']]</t>
         </is>
       </c>
     </row>
@@ -4846,12 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['brown universit']</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05gq02987']]</t>
         </is>
       </c>
     </row>
@@ -4868,12 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['xinjiang universit']</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/059gw8r13']]</t>
         </is>
       </c>
     </row>
@@ -4885,17 +3875,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['universit michigan medical']</t>
+          <t>['universit michigan medical school']</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['universit michigan medical school']</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/028p1nc07']]</t>
         </is>
       </c>
     </row>
@@ -4907,17 +3892,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['management oregon state universit corvallis or']</t>
+          <t>['state universit management']</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['state universit management']</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>[0.52]</t>
+          <t>[['https://ror.org/00nxz6d14']]</t>
         </is>
       </c>
     </row>
@@ -4934,12 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>['stanford universit school medicine']</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03mtd9a03']]</t>
         </is>
       </c>
     </row>
@@ -4956,12 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/https://ror.org/040gcmg81', 'https://ror.org/040gcmg81']]</t>
         </is>
       </c>
     </row>
@@ -4973,17 +3943,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['college physicians surgeons', 'columbia universit from']</t>
+          <t>['columbia universit']</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>['columbia universit']</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>[0.82]</t>
+          <t>[['https://ror.org/00hj8s172']]</t>
         </is>
       </c>
     </row>
@@ -4995,17 +3960,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['institut national la sante la recherche medicale', 'institut curie']</t>
+          <t>['institut curie']</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['institut curie']</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04t0gwh46']]</t>
         </is>
       </c>
     </row>
@@ -5022,12 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['universit johannesburg']</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04z6c2n17']]</t>
         </is>
       </c>
     </row>
@@ -5044,12 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['hult international business school']</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01my2ss20']]</t>
         </is>
       </c>
     </row>
@@ -5066,12 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>['glasgow caledonian universit']</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03dvm1235']]</t>
         </is>
       </c>
     </row>
@@ -5083,17 +4028,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['swiss federal institute technology', 'swiss cardiovascular center bern', 'boston universit school medicine', 'institute cell biology']</t>
+          <t>['boston universit', 'swiss federal institute technology lausanne', 'institute cell biology']</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>['boston universit', 'swiss federal institute technology lausanne', 'institute cell biology']</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>[0.37, 0.89, 1]</t>
+          <t>[['https://ror.org/05qwgg493'], ['https://ror.org/02s376052'], ['https://ror.org/04fg7fb49']]</t>
         </is>
       </c>
     </row>
@@ -5110,12 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['bursa technical universit']</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03rdpn141']]</t>
         </is>
       </c>
     </row>
@@ -5132,12 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>['bursa teknik universit']</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03rdpn141']]</t>
         </is>
       </c>
     </row>
@@ -5149,17 +4079,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['kyushu universit school dentistry']</t>
+          <t>['kyushu universit']</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>['kyushu universit']</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/03m60k875', 'https://ror.org/00p4k0j84']]</t>
         </is>
       </c>
     </row>
@@ -5171,17 +4096,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['yale universit school medicine']</t>
+          <t>['yale universit']</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>['yale universit']</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/03v76x132']]</t>
         </is>
       </c>
     </row>
@@ -5198,12 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['heriotwatt universit']</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0059w0420']]</t>
         </is>
       </c>
     </row>
@@ -5220,12 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>['yasar universit']</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00dz1eb96']]</t>
         </is>
       </c>
     </row>
@@ -5242,12 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['dokuz eylul universit']</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00dbd8b73']]</t>
         </is>
       </c>
     </row>
@@ -5259,17 +4164,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health from']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>[1, 0.8660254037844388]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
@@ -5286,12 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>['afyon kocatepe universit']</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03a1crh56']]</t>
         </is>
       </c>
     </row>
@@ -5303,17 +4198,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['evolutionary biology centre', 'uppsala universit']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/048a87296']]</t>
         </is>
       </c>
     </row>
@@ -5325,17 +4215,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['cooperative research center', 'tokyo universit agriculture technology']</t>
+          <t>['tokyo universit agriculture technology']</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>['tokyo universit agriculture technology']</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00qg0kr10']]</t>
         </is>
       </c>
     </row>
@@ -5347,17 +4232,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['universit utah school']</t>
+          <t>['universit utah']</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>['universit utah']</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/03r0ha626']]</t>
         </is>
       </c>
     </row>
@@ -5369,17 +4249,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['universit california santa']</t>
+          <t>['universit california santa barbara']</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['universit california santa barbara']</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>[0.85]</t>
+          <t>[['https://ror.org/02t274463']]</t>
         </is>
       </c>
     </row>
@@ -5391,17 +4266,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['institute systems robotics', 'instituto superior tx00e9cnico']</t>
+          <t>['institute intelligent systems robotics']</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['institute intelligent systems robotics']</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/05neq8668']]</t>
         </is>
       </c>
     </row>
@@ -5413,17 +4283,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['organischchemisches institut der universit zurich', 'universidad publica navarra', 'universidad santiago compostela', 'universidad del pais vasco']</t>
+          <t>['universidad publica navarra', 'universidad santiago compostela', 'universidad del pais vasco']</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>['universidad publica navarra', 'universidad santiago compostela', 'universidad del pais vasco']</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>[1, 1, 1]</t>
+          <t>[['https://ror.org/02z0cah89'], ['https://ror.org/030eybx10'], ['https://ror.org/000xsnr85']]</t>
         </is>
       </c>
     </row>
@@ -5440,12 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>['osmaniye korkut ata universit']</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03h8sa373']]</t>
         </is>
       </c>
     </row>
@@ -5457,17 +4317,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['school public health', 'moi universit']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
@@ -5479,17 +4334,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['school public health', 'moi universit']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
@@ -5501,17 +4351,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['school education', 'moi universit']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
@@ -5523,17 +4368,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['aga khan universit east africa']</t>
+          <t>['east africa universit']</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>['east africa universit']</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/058c2zn82']]</t>
         </is>
       </c>
     </row>
@@ -5545,17 +4385,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['school school nursing', 'moi universit']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
@@ -5567,17 +4402,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college', 'state key laboratory molecular oncology', 'clinical research center cancercancer hospital']</t>
+          <t>['chinese academy medical sciences peking union medical college']</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college']</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02drdmm93']]</t>
         </is>
       </c>
     </row>
@@ -5589,17 +4419,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['national center gerontology', 'beijing hospital']</t>
+          <t>['national center geriatrics gerontology', 'beijing hospital']</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>['national center geriatrics gerontology', 'beijing hospital']</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388, 1]</t>
+          <t>[['https://ror.org/05h0rw812'], ['https://ror.org/02jwb5s28']]</t>
         </is>
       </c>
     </row>
@@ -5616,12 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
+          <t>[['https://ror.org/04jztag35'], ['https://ror.org/02drdmm93']]</t>
         </is>
       </c>
     </row>
@@ -5638,12 +4458,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>['peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>[1, 1]</t>
+          <t>[['https://ror.org/04jztag35'], ['https://ror.org/02drdmm93']]</t>
         </is>
       </c>
     </row>
@@ -5655,17 +4470,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['school electrical engineering automation', 'harbin institute technology']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01yqg2h08']]</t>
         </is>
       </c>
     </row>
@@ -5677,17 +4487,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['michigan state universit from']</t>
+          <t>['michigan state universit']</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>['michigan state universit']</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>[0.73]</t>
+          <t>[['https://ror.org/05hs6h993']]</t>
         </is>
       </c>
     </row>
@@ -5704,12 +4509,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>['ahsanullah universit science technology']</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04wfbp123']]</t>
         </is>
       </c>
     </row>
@@ -5726,12 +4526,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>['osaka universit']</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/035t8zc32']]</t>
         </is>
       </c>
     </row>
@@ -5743,17 +4538,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['universit texas health']</t>
+          <t>['universit texas health science center houston']</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>['universit texas health science center houston']</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>[0.79]</t>
+          <t>[['https://ror.org/03gds6c39']]</t>
         </is>
       </c>
     </row>
@@ -5770,12 +4560,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>['rockefeller universit']</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0420db125']]</t>
         </is>
       </c>
     </row>
@@ -5792,12 +4577,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>['chuvash state universit']</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01jmd7f74']]</t>
         </is>
       </c>
     </row>
@@ -5809,17 +4589,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>['st bartholomews the royal london school medicine dentistry', 'st bartholomews hospital']</t>
+          <t>['st bartholomews hospital']</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>['st bartholomews hospital']</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00nh9x179']]</t>
         </is>
       </c>
     </row>
@@ -5836,12 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['samara state universit economics']</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02wsba348']]</t>
         </is>
       </c>
     </row>
@@ -5858,12 +4628,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>['universidad tecnica machala']</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/036zk8k10']]</t>
         </is>
       </c>
     </row>
@@ -5875,17 +4640,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>['universidad cientifica del sur lima']</t>
+          <t>['universidad cientifica del sur']</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>['universidad cientifica del sur']</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/04xr5we72']]</t>
         </is>
       </c>
     </row>
@@ -5902,12 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['peng cheng laboratory']</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03qdqbt06']]</t>
         </is>
       </c>
     </row>
@@ -5924,12 +4679,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>['universit illinois']</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/047426m28']]</t>
         </is>
       </c>
     </row>
@@ -5941,17 +4691,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>['kyushu universit', 'school medical sciences']</t>
+          <t>['kyushu universit']</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>['kyushu universit']</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03m60k875', 'https://ror.org/00p4k0j84']]</t>
         </is>
       </c>
     </row>
@@ -5968,12 +4713,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>['waseda universit']</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00ntfnx83']]</t>
         </is>
       </c>
     </row>
@@ -5990,12 +4730,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>['waseda universit']</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00ntfnx83']]</t>
         </is>
       </c>
     </row>
@@ -6007,17 +4742,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6034,12 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['memorial sloan kettering cancer center']</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/02yrq0923']]</t>
         </is>
       </c>
     </row>
@@ -6051,17 +4776,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6073,17 +4793,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6095,17 +4810,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6117,17 +4827,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6139,17 +4844,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6161,17 +4861,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6183,17 +4878,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>[0.8944271909999159]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
@@ -6205,17 +4895,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>['harvard universit cambridge', 'junior fellow society fellows']</t>
+          <t>['cambridge universit']</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>['cambridge universit']</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>[0.47]</t>
+          <t>[['https://ror.org/013meh722']]</t>
         </is>
       </c>
     </row>
@@ -6227,17 +4912,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>['postdoctoral fellow mandelscholion research center', 'hebrew universit jerusalem jerusalem']</t>
+          <t>['hebrew universit jerusalem']</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>['hebrew universit jerusalem']</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>[0.9428090415820636]</t>
+          <t>[['https://ror.org/03qxff017']]</t>
         </is>
       </c>
     </row>
@@ -6254,12 +4934,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>['zhejiang universit']</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00a2xv884']]</t>
         </is>
       </c>
     </row>
@@ -6276,12 +4951,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>['universit college cork']</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03265fv13']]</t>
         </is>
       </c>
     </row>
@@ -6293,17 +4963,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>['centre local regional governance', 'universit college cork']</t>
+          <t>['universit college cork']</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>['universit college cork']</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03265fv13']]</t>
         </is>
       </c>
     </row>
@@ -6320,12 +4985,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>['universit college cork']</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03265fv13']]</t>
         </is>
       </c>
     </row>
@@ -6337,17 +4997,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>['loughborough universit', 'school sport']</t>
+          <t>['loughborough universit']</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>['loughborough universit']</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04vg4w365']]</t>
         </is>
       </c>
     </row>
@@ -6364,12 +5019,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>['rockefeller universit']</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0420db125']]</t>
         </is>
       </c>
     </row>
@@ -6381,17 +5031,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>['national heart centre']</t>
+          <t>['national heart centre singapore']</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>['national heart centre singapore']</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/04f8k9513']]</t>
         </is>
       </c>
     </row>
@@ -6408,12 +5053,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>['national universit hospital']</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04fp9fm22']]</t>
         </is>
       </c>
     </row>
@@ -6430,12 +5070,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>['yale universit']</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03v76x132']]</t>
         </is>
       </c>
     </row>
@@ -6447,17 +5082,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>['faculty engineering technology science', 'higher colleges technology']</t>
+          <t>['higher colleges technology']</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>['higher colleges technology']</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00qmy9z88']]</t>
         </is>
       </c>
     </row>
@@ -6469,17 +5099,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>['faculty engineering', 'lebanese universit']</t>
+          <t>['lebanese universit']</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>['lebanese universit']</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05x6qnc69']]</t>
         </is>
       </c>
     </row>
@@ -6491,17 +5116,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>['karabuk univ']</t>
+          <t>['karabuk universit']</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>['karabuk universit']</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/04wy7gp54']]</t>
         </is>
       </c>
     </row>
@@ -6513,17 +5133,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology from']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/042nb2s44']]</t>
         </is>
       </c>
     </row>
@@ -6540,12 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['sungkyunkwan universit']</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04q78tk20']]</t>
         </is>
       </c>
     </row>
@@ -6562,12 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['tohoku universit']</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01dq60k83']]</t>
         </is>
       </c>
     </row>
@@ -6584,12 +5189,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>['tokyo institute technology']</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0112mx960']]</t>
         </is>
       </c>
     </row>
@@ -6606,12 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['shaoxing universit']</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0435tej63']]</t>
         </is>
       </c>
     </row>
@@ -6623,17 +5218,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>['washington universit school medicine']</t>
+          <t>['universit washington school medicine']</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>['universit washington school medicine']</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03ymk3103']]</t>
         </is>
       </c>
     </row>
@@ -6650,12 +5240,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>['loyola universit medical center']</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05xcyt367']]</t>
         </is>
       </c>
     </row>
@@ -6672,12 +5257,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>['loyola universit medical center']</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05xcyt367']]</t>
         </is>
       </c>
     </row>
@@ -6689,17 +5269,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>['tufts universit school medicine']</t>
+          <t>['tufts universit']</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>['tufts universit']</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>[0.7071067811865475]</t>
+          <t>[['https://ror.org/05wvpxv85']]</t>
         </is>
       </c>
     </row>
@@ -6711,17 +5286,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit ilahiyat fakultesi']</t>
+          <t>['kahramanmaras sutcu imam universit']</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit']</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>[0.8164965809277261]</t>
+          <t>[['https://ror.org/03gn5cg19']]</t>
         </is>
       </c>
     </row>
@@ -6738,12 +5308,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit']</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03gn5cg19']]</t>
         </is>
       </c>
     </row>
@@ -6760,12 +5325,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universit']</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01y0j0j86']]</t>
         </is>
       </c>
     </row>
@@ -6782,12 +5342,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>['duke universit medical center']</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03njmea73', 'https://ror.org/04bct7p84']]</t>
         </is>
       </c>
     </row>
@@ -6804,12 +5359,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>['universit tennessee']</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/020f3ap87', 'https://ror.org/0563nxn44', 'https://ror.org/00xzqjh13']]</t>
         </is>
       </c>
     </row>
@@ -6821,17 +5371,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>['universit pennsylvania school']</t>
+          <t>['universit pennsylvania']</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>['universit pennsylvania']</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>[0.816496580927726]</t>
+          <t>[['https://ror.org/04p491231', 'https://ror.org/00b30xv10']]</t>
         </is>
       </c>
     </row>
@@ -6843,17 +5388,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>['harvard medical school from']</t>
+          <t>['harvard medical school']</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>['harvard medical school']</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>[0.8660254037844388]</t>
+          <t>[['https://ror.org/03wevmz92']]</t>
         </is>
       </c>
     </row>
@@ -6870,12 +5410,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>['ehime universit']</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/017hkng22']]</t>
         </is>
       </c>
     </row>
@@ -6892,12 +5427,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>['qassim universit']</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01wsfe280']]</t>
         </is>
       </c>
     </row>
@@ -6914,12 +5444,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>['pukyong national universit']</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/0433kqc49']]</t>
         </is>
       </c>
     </row>
@@ -6936,12 +5461,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>['tongmyong universit']</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/01asa8g02']]</t>
         </is>
       </c>
     </row>
@@ -6953,17 +5473,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>['eastern minnesota universit']</t>
+          <t>['universit minnesota']</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>['universit minnesota']</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>[0.82]</t>
+          <t>[['https://ror.org/017zqws13']]</t>
         </is>
       </c>
     </row>
@@ -6980,12 +5495,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>['amur state universit']</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03fws8b96']]</t>
         </is>
       </c>
     </row>
@@ -6997,17 +5507,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>['universit british columbia', 'faculty forestry', 'forest sciences centre']</t>
+          <t>['universit british columbia']</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
@@ -7019,17 +5524,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>['beijing forestry universit', 'college biological sciences technology', 'key laboratory genetics breeding forest trees ornamental plants']</t>
+          <t>['beijing forestry universit']</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>['beijing forestry universit']</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04xv2pc41']]</t>
         </is>
       </c>
     </row>
@@ -7041,17 +5541,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>['beijing forestry universit', 'college biological sciences technology']</t>
+          <t>['beijing forestry universit']</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>['beijing forestry universit']</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/04xv2pc41']]</t>
         </is>
       </c>
     </row>
@@ -7063,17 +5558,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>['narmad south gujarat universit']</t>
+          <t>['veer narmad south gujarat universit']</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>['veer narmad south gujarat universit']</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>[0.91]</t>
+          <t>[['https://ror.org/04frnz493']]</t>
         </is>
       </c>
     </row>
@@ -7085,17 +5575,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>['universit california san']</t>
+          <t>['universit california san diego']</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>['universit california san diego']</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>[0.71]</t>
+          <t>[['https://ror.org/0168r3w48']]</t>
         </is>
       </c>
     </row>
@@ -7112,12 +5597,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>['la jolla institute allergy immunology']</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/05vkpd318']]</t>
         </is>
       </c>
     </row>
@@ -7134,12 +5614,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>['universit lausanne']</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/019whta54']]</t>
         </is>
       </c>
     </row>
@@ -7156,12 +5631,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>['northwestern universit']</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>[1]</t>
+          <t>[['https://ror.org/00y7snj24', 'https://ror.org/04edns687', 'https://ror.org/04xf6c905', 'https://ror.org/01bry7z39', 'https://ror.org/04t5xt781', 'https://ror.org/019t2rq07', 'https://ror.org/012wxa772', 'https://ror.org/000e0be47']]</t>
         </is>
       </c>
     </row>

--- a/affilMatch.xlsx
+++ b/affilMatch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,34 +487,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>School Mechanical Engineering Automation, Harbin Institute Technology, Shenzhen518055, China</t>
+          <t>Shenzhen Polytechnic, Shenzhen518055, China</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
+          <t>['shenzhen polytechnic']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01yqg2h08']]</t>
+          <t>[['https://ror.org/00d2w9g53']]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Shenzhen Polytechnic, Shenzhen518055, China</t>
+          <t>School Mechanical Engineering Automation, Harbin Institute Technology, Shenzhen518055, China</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['shenzhen polytechnic']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00d2w9g53']]</t>
+          <t>[['https://ror.org/01yqg2h08']]</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Assistant Professor, Dept Civil Environmental Engineering, 1075 13th St South, Suite 120, Univ Alabama Birmingham, Birmingham, AL 352944440</t>
+          <t>Department Immunohaematology Blood Bank, Leiden University Hospital, The Netherlands</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['universit alabama birmingham']</t>
+          <t>leiden universit</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['https://ror.org/008s83205']]</t>
+          <t>['https://ror.org/027bh9e22']</t>
         </is>
       </c>
     </row>
@@ -560,97 +560,97 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['universidad colorado en denver']</t>
+          <t>universit colorado denver</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02hh7en24']]</t>
+          <t>['https://ror.org/02hh7en24']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aksaray University, Turkiye</t>
+          <t>Assistant Professor, Dept Civil Environmental Engineering, 1075 13th St South, Suite 120, Univ Alabama Birmingham, Birmingham, AL 352944440</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['aksaray universit']</t>
+          <t>['universit alabama birmingham']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['https://ror.org/026db3d50']]</t>
+          <t>[['https://ror.org/008s83205']]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Cooperative Research Center Vaccine Technology, Queensland Institute Medical Research, Royal Brisbane Hospital, Australia</t>
+          <t>Aksaray University, Turkiye</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['royal brisbane womens hospital']</t>
+          <t>['aksaray universit']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05p52kj31']]</t>
+          <t>[['https://ror.org/026db3d50']]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Masaryk University</t>
+          <t>The Cooperative Research Center Vaccine Technology, Queensland Institute Medical Research, Royal Brisbane Hospital, Australia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['masaryk universit']</t>
+          <t>['royal brisbane womens hospital']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02j46qs45']]</t>
+          <t>[['https://ror.org/05p52kj31']]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Immunology Service, Clinical Center, National Institutes Health, Bethesda, MD 20892</t>
+          <t>Pan African University Institute Governance, Humanities Social Sciences, Yaounde, Cameroon</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
+          <t>['pan african universit institute governance humanities social sciences']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01cwqze88']]</t>
+          <t>['https://ror.org/02ysyhv70']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Developmental Endocrinology Branch, National Institute Child Health Human Development,</t>
+          <t>Masaryk University</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['national institute child health human development']</t>
+          <t>['masaryk universit']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04byxyr05']]</t>
+          <t>[['https://ror.org/02j46qs45']]</t>
         </is>
       </c>
     </row>
@@ -674,4962 +674,5132 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>School Nursing, Anhui Medical University</t>
+          <t>Developmental Endocrinology Branch, National Institute Child Health Human Development,</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['anhui medical universit']</t>
+          <t>['national institute child health human development']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03xb04968']]</t>
+          <t>[['https://ror.org/04byxyr05']]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Department Food Technology, Faculty Science, Chulalongkorn University, Bangkok, Thailand</t>
+          <t>Immunology Service, Clinical Center, National Institutes Health, Bethesda, MD 20892</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['chulalongkorn universit']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['https://ror.org/028wp3y58']]</t>
+          <t>[['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA</t>
+          <t>School Nursing, Anhui Medical University</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['eastern regional research center']</t>
+          <t>['anhui medical universit']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[['https://ror.org/052v5pn20']]</t>
+          <t>[['https://ror.org/03xb04968']]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Presidency University,Dept Computer Science Engineering,Bangalore,India</t>
+          <t>Observatorio Amenazas y Recursos Naturales Ministerio Medio Ambiente,San Salvador,El Salvador</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['presidency universit']</t>
+          <t>['ministerio medio ambiente y recursos naturales']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04xgbph11']]</t>
+          <t>['https://ror.org/042ywsw21']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Department Chemistry, Texas AM University, PO Box 30012, College Station, Texas 778423012</t>
+          <t>USDA, ARS, Eastern Regional Research Center, Wyndmoor, PA, USA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['texas am universit']</t>
+          <t>['eastern regional research center']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01f5ytq51']]</t>
+          <t>[['https://ror.org/052v5pn20']]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marmara University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Department Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey</t>
+          <t>Department Food Technology, Faculty Science, Chulalongkorn University, Bangkok, Thailand</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['marmara universit']</t>
+          <t>['chulalongkorn universit']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02kswqa67']]</t>
+          <t>[['https://ror.org/028wp3y58']]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Division Forensic Medicine, Graduate School Medicine, Tottori University, Yonago, Japan</t>
+          <t>Presidency University,Dept Computer Science Engineering,Bangalore,India</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['tottori universit']</t>
+          <t>['presidency universit']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[['https://ror.org/024yc3q36']]</t>
+          <t>[['https://ror.org/04xgbph11']]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Department Anatomy, Graduate School Medicine, Tottori University, Yonago, Japan</t>
+          <t>Department Chemistry, Texas AM University, PO Box 30012, College Station, Texas 778423012</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['tottori universit']</t>
+          <t>['texas am universit']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[['https://ror.org/024yc3q36']]</t>
+          <t>[['https://ror.org/01f5ytq51']]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Information Science Department, Georgian College, Barrie, ON, Canada</t>
+          <t>Marmara University, Faculty Health Sciences, Division Physiotherapy Rehabilitation, Department Cardiopulmonary Physiotherapy Rehabilitation, Istanbul, Turkey</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['georgian college']</t>
+          <t>['marmara universit']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04s2jm085']]</t>
+          <t>[['https://ror.org/02kswqa67']]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ted Rogers School Information Technology Management Ted Rogers School Management, Toronto Metropolitan University, Toronto, ON, Canada</t>
+          <t>Division Forensic Medicine, Graduate School Medicine, Tottori University, Yonago, Japan</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['universit toronto']</t>
+          <t>['tottori universit']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03dbr7087']]</t>
+          <t>[['https://ror.org/024yc3q36']]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Department Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia</t>
+          <t>Department Anatomy, Graduate School Medicine, Tottori University, Yonago, Japan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['curtin universit']</t>
+          <t>['tottori universit']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02n415q13']]</t>
+          <t>[['https://ror.org/024yc3q36']]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>State Key Laboratory Fine Chemicals, Key Laboratory Industrial Ecology Environmental Engineering , School Environmental Science Technology, Dalian University Technology, Dalian 116024, P R China</t>
+          <t>Ted Rogers School Information Technology Management Ted Rogers School Management, Toronto Metropolitan University, Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['dalian universit technology']</t>
+          <t>['toronto metropolitan universit']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[['https://ror.org/023hj5876']]</t>
+          <t>['https://ror.org/05g13zd79']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tulane Regional Primate Research Center, Tulane University Health Sciences Center, Covington, Louisiana</t>
+          <t>Information Science Department, Georgian College, Barrie, ON, Canada</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['tulane universit']</t>
+          <t>['georgian college']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04vmvtb21']]</t>
+          <t>[['https://ror.org/04s2jm085']]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health, Bethesda, Maryland</t>
+          <t>Department Chemical Engineering, Curtin University, GPO Box U1987, Perth, Western Australia 6845, Australia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['curtin universit']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
+          <t>[['https://ror.org/02n415q13']]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>University Porto</t>
+          <t>State Key Laboratory Fine Chemicals, Key Laboratory Industrial Ecology Environmental Engineering , School Environmental Science Technology, Dalian University Technology, Dalian 116024, P R China</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['universit porto']</t>
+          <t>['dalian universit technology']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043pwc612']]</t>
+          <t>[['https://ror.org/023hj5876']]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Centre Recherches Politiques Sciences Po, Institut detudes politiques Paris Paris France</t>
+          <t>Obstetrical Perinatal Pediatric Epidemiology Research Team Institute Health Medical Research Centre Research Epidemiology Statistics Universite Paris Cite Paris France</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['centre recherches politiques sciences po']</t>
+          <t>['universit paris cite']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0266y7j75']]</t>
+          <t>['https://ror.org/05f82e368']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PhD Student, Department Political Science, The University Chicago httpsdxdoiorg2462 Chicago USA</t>
+          <t>Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health, Bethesda, Maryland</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
+          <t>['national institutes health', 'national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
+          <t>[['https://ror.org/01cwqze88'], ['https://ror.org/043z4tv69']]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Department OtolaryngologyHead Neck Surgery, University California San Diego School Medicine, La Jolla</t>
+          <t>Tulane Regional Primate Research Center, Tulane University Health Sciences Center, Covington, Louisiana</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['universit california san diego school medicine']</t>
+          <t>['tulane universit']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01vf2g217']]</t>
+          <t>[['https://ror.org/04vmvtb21']]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Department Family Community Medicine, University Toronto, Toronto, ON, Canada</t>
+          <t>University Porto</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['universit toronto']</t>
+          <t>['universit porto']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03dbr7087']]</t>
+          <t>[['https://ror.org/043pwc612']]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>College Science, University Shanghai Science Technology,Shanghai,China</t>
+          <t>Centre Recherches Politiques Sciences Po, Institut detudes politiques Paris Paris France</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['universit shanghai science technology']</t>
+          <t>['institut detudes politiques paris', 'centre recherches politiques sciences po']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00ay9v204']]</t>
+          <t>['https://ror.org/05fe7ax82', ['https://ror.org/0266y7j75']]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Department Medical Microbiology Immunology, University Ulm, FRG</t>
+          <t>PhD Student, Department Political Science, The University Chicago httpsdxdoiorg2462 Chicago USA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['universit ulm']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[['https://ror.org/032000t02']]</t>
+          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>National University Sciences x0026 Technology,CEME,Department Engineering Management,Rawalpindi,Pakistan</t>
+          <t>Department OtolaryngologyHead Neck Surgery, University California San Diego School Medicine, La Jolla</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['national universit']</t>
+          <t>['universit california san diego school medicine']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[['https://ror.org/000a8qk84']]</t>
+          <t>[['https://ror.org/01vf2g217']]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>From Departments Physiology Biophysics , CARIM, Maastricht University, Maastricht, Netherlands Dr Broeders is now Department Internal Medicine, Rijnland Hospital, Leiderdorp, Netherlands, Dr Tangelder is now Laboratory Physiology, ICARVU, Vrije Universiteit Medical Center, Amsterdam, Netherlands</t>
+          <t>Department Family Community Medicine, University Toronto, Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['maastricht universit']</t>
+          <t>['universit toronto']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02jz4aj89']]</t>
+          <t>[['https://ror.org/03dbr7087']]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CNR, Istituto di Chimica dei Composti OrganoMetalliciICCOM, Sezione di Bari, Dipartimento FarmacoChimico, Universita di Bari, Via EOrabona 4, I70126 Bari, Italy</t>
+          <t>College Science, University Shanghai Science Technology,Shanghai,China</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['universit bari', 'istituto di chimica dei composti organometallici']</t>
+          <t>['universit shanghai science technology']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[['https://ror.org/027ynra39'], ['https://ror.org/02fkw1114']]</t>
+          <t>[['https://ror.org/00ay9v204']]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Uppsala Clinical Research Center Uppsala University Uppsala Sweden</t>
+          <t>CONICET, Universidad Nacional Avellaneda, Avellaneda, Argentina</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
+          <t>['universidad nacional avellaneda']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[['https://ror.org/048a87296']]</t>
+          <t>['https://ror.org/05f05cy37']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Department Cardiology, Northwest Clinics Alkmaar, Radboud University Medical Center Nijmegen The Netherlands</t>
+          <t>Department Medical Microbiology Immunology, University Ulm, FRG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['universit medical center']</t>
+          <t>['universit ulm']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[['https://ror.org/036pt7h44']]</t>
+          <t>[['https://ror.org/032000t02']]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Department Medicine III University Heidelberg Heidelberg Germany</t>
+          <t>National University Sciences x0026 Technology,CEME,Department Engineering Management,Rawalpindi,Pakistan</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['universit heidelberg']</t>
+          <t>['national universit']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04b85d432']]</t>
+          <t>[['https://ror.org/000a8qk84']]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Department Infection, Immunity Cardiovascular Disease University Sheffield Sheffield United Kingdom</t>
+          <t>From Departments Physiology Biophysics , CARIM, Maastricht University, Maastricht, Netherlands Dr Broeders is now Department Internal Medicine, Rijnland Hospital, Leiderdorp, Netherlands, Dr Tangelder is now Laboratory Physiology, ICARVU, Vrije Universiteit Medical Center, Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['sheffield universit']</t>
+          <t>['vrije universit medical center', 'maastricht universit']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05krs5044']]</t>
+          <t>['https://ror.org/00q6h8f30', ['https://ror.org/02jz4aj89']]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Department Medical Sciences Uppsala University Uppsala Sweden</t>
+          <t>CNR, Istituto di Chimica dei Composti OrganoMetalliciICCOM, Sezione di Bari, Dipartimento FarmacoChimico, Universita di Bari, Via EOrabona 4, I70126 Bari, Italy</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
+          <t>['istituto di chimica dei composti organometallici', 'universit bari']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[['https://ror.org/048a87296']]</t>
+          <t>[['https://ror.org/02fkw1114'], ['https://ror.org/027ynra39']]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Graduate School Science Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,5258577</t>
+          <t>Department Medicine III University Heidelberg Heidelberg Germany</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['ritsumeikan universit']</t>
+          <t>['heidelberg universit']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0197nmd03']]</t>
+          <t>[['https://ror.org/038t36y30']]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">From Department Cardiovascular Science Medicine, Chiba University Graduate School Medicine, Chiba, Japan Department Cardiovascular Medicine, Graduate School Medicine, University Tokyo, Tokyo, Japan Department Metabolic Diseases, Graduate School Medicine, University Tokyo, Tokyo, Japan </t>
+          <t>Department Cardiology, Northwest Clinics Alkmaar, Radboud University Medical Center Nijmegen The Netherlands</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['universit tokyo', 'chiba universit']</t>
+          <t>['universit medical center']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00dgyv454', 'https://ror.org/057zh3y96', 'https://ror.org/01etn5q21'], ['https://ror.org/01hjzeq58']]</t>
+          <t>[['https://ror.org/036pt7h44']]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Rutgers University,DIMACS,New Brunswick,NJ,USA</t>
+          <t>Department Infection, Immunity Cardiovascular Disease University Sheffield Sheffield United Kingdom</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['rutgers universit']</t>
+          <t>universit sheffield</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05vt9qd57']]</t>
+          <t>['https://ror.org/05krs5044']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Petrozavodsk State University City Clinical Hospital named after A K Eramishantsev</t>
+          <t>Uppsala Clinical Research Center Uppsala University Uppsala Sweden</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['petrozavodsk state universit']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0176aa147']]</t>
+          <t>[['https://ror.org/048a87296']]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Division Pharmaceutics, Department Pharmacology, Toxicology Therapeutics School Pharmacy, Showa University</t>
+          <t>Department Medical Sciences Uppsala University Uppsala Sweden</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['showa universit']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04mzk4q39']]</t>
+          <t>[['https://ror.org/048a87296']]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Laboratory Immunology, National Institute Allergy Infectious Diseases, Bethesda, MD 20892</t>
+          <t>Graduate School Science Engineering, Ritsumeikan University,Kusatsu,Shiga,Japan,5258577</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases']</t>
+          <t>['ritsumeikan universit']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043z4tv69']]</t>
+          <t>[['https://ror.org/0197nmd03']]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>From Institute Experimental Clinical Pharmacology Toxicology Institute Anatomy , FriedrichAlexander University ErlangenNuremberg, Erlangen, Germany Institute Pharmacology Toxicology , Dresden University Technology, Dresden, Germany Department Experimental Cardiology , MaxPlanckInstitute, Bad Nauheim, Germany</t>
+          <t xml:space="preserve">From Department Cardiovascular Science Medicine, Chiba University Graduate School Medicine, Chiba, Japan Department Cardiovascular Medicine, Graduate School Medicine, University Tokyo, Tokyo, Japan Department Metabolic Diseases, Graduate School Medicine, University Tokyo, Tokyo, Japan </t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['universit technology', 'universit erlangennuremberg']</t>
+          <t>['universit tokyo', 'chiba universit']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03gbw6p94'], ['https://ror.org/00f7hpc57']]</t>
+          <t>[['https://ror.org/00dgyv454', 'https://ror.org/057zh3y96', 'https://ror.org/01etn5q21'], ['https://ror.org/01hjzeq58']]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GAZI UNIVERSITESI, GAZI EGITIM FAKULTESI</t>
+          <t>Rutgers University,DIMACS,New Brunswick,NJ,USA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['gazi universit']</t>
+          <t>['rutgers universit']</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[['https://ror.org/054xkpr46']]</t>
+          <t>[['https://ror.org/05vt9qd57']]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gazi Universitesi</t>
+          <t>Petrozavodsk State University City Clinical Hospital named after A K Eramishantsev</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['gazi universit']</t>
+          <t>['petrozavodsk state universit']</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[['https://ror.org/054xkpr46']]</t>
+          <t>[['https://ror.org/0176aa147']]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>College Safety Science Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China</t>
+          <t>Division Pharmaceutics, Department Pharmacology, Toxicology Therapeutics School Pharmacy, Showa University</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['henan polytechnic universit']</t>
+          <t>['showa universit']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05vr1c885']]</t>
+          <t>[['https://ror.org/04mzk4q39']]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>School Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China</t>
+          <t>Laboratory Immunology, National Institute Allergy Infectious Diseases, Bethesda, MD 20892</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['henan polytechnic universit']</t>
+          <t>['national institute allergy infectious diseases']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05vr1c885']]</t>
+          <t>[['https://ror.org/043z4tv69']]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA</t>
+          <t>From Institute Experimental Clinical Pharmacology Toxicology Institute Anatomy , FriedrichAlexander University ErlangenNuremberg, Erlangen, Germany Institute Pharmacology Toxicology , Dresden University Technology, Dresden, Germany Department Experimental Cardiology , MaxPlanckInstitute, Bad Nauheim, Germany</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['carnegie mellon universit']</t>
+          <t>['universit technology', 'universit erlangennuremberg']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05x2bcf33']]</t>
+          <t>[['https://ror.org/03gbw6p94'], ['https://ror.org/00f7hpc57']]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nanjing University,State Key Laboratory Novel Software Technology,Nanjing,China</t>
+          <t>GAZI UNIVERSITESI, GAZI EGITIM FAKULTESI</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['nanjing universit']</t>
+          <t>['gazi universit']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01rxvg760']]</t>
+          <t>[['https://ror.org/054xkpr46']]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Zhejiang University,School Software Technology,Ningbo,China</t>
+          <t>Gazi Universitesi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['zhejiang universit']</t>
+          <t>['gazi universit']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00a2xv884']]</t>
+          <t>[['https://ror.org/054xkpr46']]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Northeast Petroleum University,School Petroleum Engineering,Heilongjiang,China</t>
+          <t>College Safety Science Engineering, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['northeast petroleum universit']</t>
+          <t>['henan polytechnic universit']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03net5943']]</t>
+          <t>[['https://ror.org/05vr1c885']]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Dept Electrical Engineering Computer Science, University Illinois Chicago , 851 S Morgan St Fl 11, Chicago IL 606077053, USA</t>
+          <t>School Software, Henan Polytechnic University, Jiaozuo 454003, Henan, P R China</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['universit illinois chicago']</t>
+          <t>['henan polytechnic universit']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02mpq6x41', 'https://ror.org/024mw5h28']]</t>
+          <t>[['https://ror.org/05vr1c885']]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lehrstuhl Effiziente Algorithmen, Institut Informatik, Technische Universitat Munchen, D80290 Munchen, Germany</t>
+          <t>Robotics Institute, Carnegie Mellon University,Pittsburgh,PA,USA</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['technische universit munchen']</t>
+          <t>['carnegie mellon universit']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02kkvpp62']]</t>
+          <t>[['https://ror.org/05x2bcf33']]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Hirosaki University</t>
+          <t>Zhejiang University,School Software Technology,Ningbo,China</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['hirosaki universit']</t>
+          <t>['zhejiang universit']</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02syg0q74']]</t>
+          <t>[['https://ror.org/00a2xv884']]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Volgodonsk Engineering Technical Institute branch National Research Nuclear University MEPhI</t>
+          <t>Nanjing University,State Key Laboratory Novel Software Technology,Nanjing,China</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['seversky technological institute branch national research nuclear universit mephi']</t>
+          <t>['nanjing universit']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00se1zw92']]</t>
+          <t>[['https://ror.org/01rxvg760']]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Azerbaijan State Oil Industry University, Azerbaijan</t>
+          <t>Northeast Petroleum University,School Petroleum Engineering,Heilongjiang,China</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['azerbaijan state universit oil industry']</t>
+          <t>['northeast petroleum universit']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05mmnns11']]</t>
+          <t>[['https://ror.org/03net5943']]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>University Chicago, Ben May Institute, IL 60637</t>
+          <t>Dept Electrical Engineering Computer Science, University Illinois Chicago , 851 S Morgan St Fl 11, Chicago IL 606077053, USA</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
+          <t>['universit illinois chicago']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
+          <t>[['https://ror.org/02mpq6x41', 'https://ror.org/024mw5h28']]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Director, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400</t>
+          <t>Lehrstuhl Effiziente Algorithmen, Institut Informatik, Technische Universitat Munchen, D80290 Munchen, Germany</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['universit northwestern']</t>
+          <t>['technische universit munchen']</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[['https://ror.org/019t2rq07']]</t>
+          <t>[['https://ror.org/02kkvpp62']]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Professor, Dept Industrial Engineering Management Science, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400</t>
+          <t>Hirosaki University</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['universit northwestern']</t>
+          <t>['hirosaki universit']</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[['https://ror.org/019t2rq07']]</t>
+          <t>[['https://ror.org/02syg0q74']]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Research Assistant, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400</t>
+          <t>Volgodonsk Engineering Technical Institute branch National Research Nuclear University MEPhI</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['universit northwestern']</t>
+          <t>['seversky technological institute branch national research nuclear universit mephi']</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[['https://ror.org/019t2rq07']]</t>
+          <t>[['https://ror.org/00se1zw92']]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Associate Director, National Institute Statistical Sciences, PO Box 14006, Research Triangle Park, NC 277094006</t>
+          <t>Azerbaijan State Oil Industry University, Azerbaijan</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['national institute statistical sciences']</t>
+          <t>['azerbaijan state universit oil industry']</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03kcsjh25']]</t>
+          <t>[['https://ror.org/05mmnns11']]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Department Microbiology, Lobund Laboratory, University Notre Dame From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213</t>
+          <t>University Chicago, Ben May Institute, IL 60637</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['universit notre dame']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00mkhxb43']]</t>
+          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Department Pathology, University Pittsburgh, School Medicine From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213</t>
+          <t>Director, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['universit pittsburgh']</t>
+          <t>['northwestern universit']</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0019bf448', 'https://ror.org/0242vta36', 'https://ror.org/01an3r305']]</t>
+          <t>[['https://ror.org/00y7snj24', 'https://ror.org/04edns687', 'https://ror.org/04xf6c905', 'https://ror.org/01bry7z39', 'https://ror.org/04t5xt781', 'https://ror.org/019t2rq07', 'https://ror.org/012wxa772', 'https://ror.org/000e0be47']]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Institute State Law Russian Academy Sciences</t>
+          <t>Associate Director, National Institute Statistical Sciences, PO Box 14006, Research Triangle Park, NC 277094006</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['federal state institution science institute state law russian academy sciences']</t>
+          <t>['national institute statistical sciences']</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00g6nvj03']]</t>
+          <t>[['https://ror.org/03kcsjh25']]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Department Organic Inorganic Chemistry, Faculty Sciences, Vrije Universiteit, De Boelelaan 1083, NL1081 HV, Amsterdam, The Netherlands, Bijvoet Center Biomolecular Research, Department Crystal Structural Chemistry, Utrecht University, Padualaan 8, NL3584 CH, Utrecht, The Netherlands</t>
+          <t>Professor, Dept Industrial Engineering Management Science, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['utrecht universit', 'vrije universit']</t>
+          <t>['northwestern universit']</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04pp8hn57'], ['008xxew50', 'https://ror.org/008xxew50']]</t>
+          <t>[['https://ror.org/00y7snj24', 'https://ror.org/04edns687', 'https://ror.org/04xf6c905', 'https://ror.org/01bry7z39', 'https://ror.org/04t5xt781', 'https://ror.org/019t2rq07', 'https://ror.org/012wxa772', 'https://ror.org/000e0be47']]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Department Clinical Immunology, University Hospital, Copenhagen, Denmark</t>
+          <t>Research Assistant, NSF Center Advanced CementBased Materials, Northwestern Univ, 2145 Sheridan Rd, Evanston, IL 602084400</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['copenhagen universit hospital']</t>
+          <t>['northwestern universit']</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05bpbnx46']]</t>
+          <t>[['https://ror.org/00y7snj24', 'https://ror.org/04edns687', 'https://ror.org/04xf6c905', 'https://ror.org/01bry7z39', 'https://ror.org/04t5xt781', 'https://ror.org/019t2rq07', 'https://ror.org/012wxa772', 'https://ror.org/000e0be47']]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>University Washington, Astronomy Department, Seattle, Washington, United States</t>
+          <t>Department Pathology, University Pittsburgh, School Medicine From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['universit washington']</t>
+          <t>['universit pittsburgh']</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00cvxb145']]</t>
+          <t>[['https://ror.org/0019bf448', 'https://ror.org/0242vta36', 'https://ror.org/01an3r305']]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Botanisches Institut, Universitat zu Koln, Lehrstuhl I, Gyrhofstrasse 15, D50931 Cologne, Germany</t>
+          <t>Department Microbiology, Lobund Laboratory, University Notre Dame From , Notre Dame, Indiana 46556 , , Pittsburgh, Pennsylvania 15213</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['universit zu koln']</t>
+          <t>['universit notre dame']</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00rcxh774']]</t>
+          <t>[['https://ror.org/00mkhxb43']]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Department Pathology, New York University School Medicine From , 550 First Avenue, New York, New York 10016 The , East Lansing, Michigan 48823</t>
+          <t>Institute State Law Russian Academy Sciences</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['new york universit school medicine']</t>
+          <t>['federal state institution science institute state law russian academy sciences']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05wthjx48']]</t>
+          <t>[['https://ror.org/00g6nvj03']]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Leipzig University Institute Economic Policy, Grimmaische Straße 12 Leipzig Germany</t>
+          <t>Department Organic Inorganic Chemistry, Faculty Sciences, Vrije Universiteit, De Boelelaan 1083, NL1081 HV, Amsterdam, The Netherlands, Bijvoet Center Biomolecular Research, Department Crystal Structural Chemistry, Utrecht University, Padualaan 8, NL3584 CH, Utrecht, The Netherlands</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['leipzig universit']</t>
+          <t>['utrecht universit', 'vrije universit']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03s7gtk40']]</t>
+          <t>[['https://ror.org/04pp8hn57'], ['008xxew50', 'https://ror.org/008xxew50']]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Comprehensive Disease Control Prevention Center Inner Mongolia Autonomous Region</t>
+          <t>Department Clinical Immunology, University Hospital, Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['inner mongolia autonomous region comprehensive disease prevention control center']</t>
+          <t>['copenhagen universit hospital']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02xy6bg05']]</t>
+          <t>[['https://ror.org/05bpbnx46']]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Beijing ChaoYang Hospital Capital Medical University Beijing Chaoyang Hospital</t>
+          <t>University Washington, Astronomy Department, Seattle, Washington, United States</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['capital medical universit']</t>
+          <t>['universit washington']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[['https://ror.org/013xs5b60']]</t>
+          <t>[['https://ror.org/00cvxb145']]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>College Criminal Justice, Naif Arab University Security Sciences, Saudi Arabia</t>
+          <t>Botanisches Institut, Universitat zu Koln, Lehrstuhl I, Gyrhofstrasse 15, D50931 Cologne, Germany</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['naif arab universit security sciences']</t>
+          <t>['universit zu koln']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049c46160']]</t>
+          <t>[['https://ror.org/00rcxh774']]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>University SouthEastern Norway,Department Maritime Operations,Horten,Norway</t>
+          <t>Department Pathology, New York University School Medicine From , 550 First Avenue, New York, New York 10016 The , East Lansing, Michigan 48823</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['universit southeastern norway']</t>
+          <t>['new york universit school medicine']</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05ecg5h20']]</t>
+          <t>[['https://ror.org/05wthjx48']]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Department Obstetrics Gynecology, New York University Grossman School Medicine, New York</t>
+          <t>Leipzig University Institute Economic Policy, Grimmaische Straße 12 Leipzig Germany</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['new york universit']</t>
+          <t>universit leipzig</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0190ak572']]</t>
+          <t>['https://ror.org/03s7gtk40']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Centre Neuroscience Research, GKT School Biomedical Sciences, Kings College London, London SE1 1UL, UK</t>
+          <t>Comprehensive Disease Control Prevention Center Inner Mongolia Autonomous Region</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['kings college london']</t>
+          <t>inner mongolia comprehensive disease prevention control center</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0220mzb33']]</t>
+          <t>['https://ror.org/02xy6bg05']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Institute Enzyme Research, Tokushima University, Tokushima 7708503, Japan</t>
+          <t>Beijing ChaoYang Hospital Capital Medical University Beijing Chaoyang Hospital</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['universit tokushima']</t>
+          <t>['capital medical universit']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[['https://ror.org/044vy1d05']]</t>
+          <t>[['https://ror.org/013xs5b60']]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Laboratory Biology, Graduate School Commerce Management, Hitotsubashi University, Tokyo 1868601, Japan</t>
+          <t>College Criminal Justice, Naif Arab University Security Sciences, Saudi Arabia</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['hitotsubashi universit']</t>
+          <t>['naif arab universit security sciences']</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04jqj7p05']]</t>
+          <t>[['https://ror.org/049c46160']]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Freie Universitat Berlin</t>
+          <t>University SouthEastern Norway,Department Maritime Operations,Horten,Norway</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['freie universit berlin']</t>
+          <t>['universit southeastern norway']</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[['https://ror.org/046ak2485']]</t>
+          <t>[['https://ror.org/05ecg5h20']]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Department Electrical Engineering Information Technology, Shandong University Science Technology, Jinan 250031, China</t>
+          <t>Department Obstetrics Gynecology, New York University Grossman School Medicine, New York</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['shandong universit science technology']</t>
+          <t>['new york universit']</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04gtjhw98']]</t>
+          <t>[['https://ror.org/0190ak572']]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>School Computer Science, Qufu Normal University, Rizhao 276826, China</t>
+          <t>Institute Enzyme Research, Tokushima University, Tokushima 7708503, Japan</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['qufu normal universit']</t>
+          <t>['tokushima universit']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03ceheh96']]</t>
+          <t>['https://ror.org/044vy1d05']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Department Pathology, University Michigan, Ann Arbor 48109</t>
+          <t>Centre Neuroscience Research, GKT School Biomedical Sciences, Kings College London, London SE1 1UL, UK</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['universit michigan']</t>
+          <t>['kings college london']</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00jmfr291']]</t>
+          <t>[['https://ror.org/0220mzb33']]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Tokushima University</t>
+          <t>Laboratory Biology, Graduate School Commerce Management, Hitotsubashi University, Tokyo 1868601, Japan</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['universit tokushima']</t>
+          <t>['hitotsubashi universit']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[['https://ror.org/044vy1d05']]</t>
+          <t>[['https://ror.org/04jqj7p05']]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Department Bioquimica e Imunologia, Universidade Federal Minas Gerais, Brazil</t>
+          <t>Freie Universitat Berlin</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['universidade federal minas gerais']</t>
+          <t>['freie universit berlin']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0176yjw32']]</t>
+          <t>[['https://ror.org/046ak2485']]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Department Microbiology, University Tennessee, Knoxville 379960845</t>
+          <t>School Computer Science, Qufu Normal University, Rizhao 276826, China</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['universit tennessee']</t>
+          <t>['qufu normal universit']</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[['https://ror.org/020f3ap87', 'https://ror.org/0563nxn44', 'https://ror.org/00xzqjh13']]</t>
+          <t>[['https://ror.org/03ceheh96']]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Department Medicine, The University Chicago, Pritzker School Medicine , , 1 Chicago, Illinois 60637</t>
+          <t>Department Electrical Engineering Information Technology, Shandong University Science Technology, Jinan 250031, China</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['universit chicago']</t>
+          <t>['shandong universit science technology']</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
+          <t>[['https://ror.org/04gtjhw98']]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Manipal University,Department Information Technology,Jaipur</t>
+          <t>Department Pathology, University Michigan, Ann Arbor 48109</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['manipal universit', 'department electronics information technology']</t>
+          <t>['universit michigan']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02xzytt36'], ['https://ror.org/02z31cn83']]</t>
+          <t>[['https://ror.org/00jmfr291']]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>College Artificial Intelligence, Nankai University,Tianjin,China</t>
+          <t>Tokushima University</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['nankai universit']</t>
+          <t>['tokushima universit']</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01y1kjr75']]</t>
+          <t>['https://ror.org/044vy1d05']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>School Vehicle Mobility, Tsinghua University,Beijing,China</t>
+          <t>Department Bioquimica e Imunologia, Universidade Federal Minas Gerais, Brazil</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['tsinghua universit']</t>
+          <t>['universidade federal minas gerais']</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03cve4549', 'https://ror.org/050nfgr37']]</t>
+          <t>[['https://ror.org/0176yjw32']]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Center Biomedical Imaging Technology, University Connecticut Health Center, Farmington, Connecticut 06117</t>
+          <t>Department Microbiology, University Tennessee, Knoxville 379960845</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['universit connecticut health center']</t>
+          <t>['universit tennessee']</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02kzs4y22']]</t>
+          <t>[['https://ror.org/020f3ap87', 'https://ror.org/0563nxn44', 'https://ror.org/00xzqjh13']]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Department Internal Medicine, University Iowa College Medicine, Iowa City 52242, USA</t>
+          <t>Department Medicine, The University Chicago, Pritzker School Medicine , , 1 Chicago, Illinois 60637</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
+          <t>['universit chicago']</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[['https://ror.org/036jqmy94']]</t>
+          <t>[['https://ror.org/03nvtfm43', 'https://ror.org/01qxhf360', 'https://ror.org/024mw5h28', 'https://ror.org/04dwckp88', 'https://ror.org/02jvqj155', 'https://ror.org/02kt0tf86', 'https://ror.org/0437gna76', 'https://ror.org/02xhnzg94', 'https://ror.org/0028kf729', 'https://ror.org/01yma9m40', 'https://ror.org/01q6pmm96']]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Human Research Ethics Committee, National Institute Integrative Medicine, Gisborne, Australia</t>
+          <t xml:space="preserve">Moscow Automobile Road Construction State Technical University </t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['national institute integrative medicine']</t>
+          <t>['moscow automobile road construction state technical universit']</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00zxymv65']]</t>
+          <t>['https://ror.org/0257qw677']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Chechen State University Named after A A Kadyrova</t>
+          <t>Manipal University,Department Information Technology,Jaipur</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['chechen state universit']</t>
+          <t>['department electronics information technology', 'manipal universit']</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[['https://ror.org/004ze6w33']]</t>
+          <t>[['https://ror.org/02z31cn83'], ['https://ror.org/02xzytt36']]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dagestan State University</t>
+          <t>College Artificial Intelligence, Nankai University,Tianjin,China</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['dagestan state universit']</t>
+          <t>['nankai universit']</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01vw69t89']]</t>
+          <t>[['https://ror.org/01y1kjr75']]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Laboratory Microbial Immunity, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland</t>
+          <t>School Vehicle Mobility, Tsinghua University,Beijing,China</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['tsinghua universit']</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
+          <t>[['https://ror.org/03cve4549', 'https://ror.org/050nfgr37']]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2Pathology, University Iowa, Iowa City, IA</t>
+          <t>Center Biomedical Imaging Technology, University Connecticut Health Center, Farmington, Connecticut 06117</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
+          <t>['universit connecticut health center']</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[['https://ror.org/036jqmy94']]</t>
+          <t>[['https://ror.org/02kzs4y22']]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Beijing University Technology,China</t>
+          <t>Department Internal Medicine, University Iowa College Medicine, Iowa City 52242, USA</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['beijing universit technology']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[['https://ror.org/037b1pp87', 'https://ror.org/03xgzn792', 'https://ror.org/02egmk993']]</t>
+          <t>[['https://ror.org/036jqmy94']]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Carleton University,Canada</t>
+          <t>Human Research Ethics Committee, National Institute Integrative Medicine, Gisborne, Australia</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['carleton universit']</t>
+          <t>['national institute integrative medicine']</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02qtvee93']]</t>
+          <t>[['https://ror.org/00zxymv65']]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tianjin University,China</t>
+          <t>Dagestan State University</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['tianjin universit']</t>
+          <t>['dagestan state universit']</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[['https://ror.org/012tb2g32']]</t>
+          <t>[['https://ror.org/01vw69t89']]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Department English Communication, The International Research Centre Advancement Health Communication, The Hong Kong Polytechnic University</t>
+          <t>Chechen State University Named after A A Kadyrova</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['hong kong polytechnic universit']</t>
+          <t>['chechen state universit']</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00q4vv597', 'https://ror.org/0030zas98']]</t>
+          <t>[['https://ror.org/004ze6w33']]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Department Medicine, Division Infectious Diseases, Zealand University Hospital Roskilde, Denmark</t>
+          <t>Laboratory Microbial Immunity, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['zealand universit hospital']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00363z010']]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Department Biology, Queens University, Kingston, Ontario, Canada K7L 3N6</t>
+          <t>2Pathology, University Iowa, Iowa City, IA</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['queens universit']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02y72wh86']]</t>
+          <t>[['https://ror.org/036jqmy94']]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Department Biochemistry, Queens University, Kingston, Ontario, Canada K7L 3N6</t>
+          <t>Tianjin University,China</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['queens universit']</t>
+          <t>['tianjin universit']</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02y72wh86']]</t>
+          <t>[['https://ror.org/012tb2g32']]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Institute Flight Mechanics Controls,The Faculty Aerospace Engineering Geodesy,University Stuttgart,Stuttgart,Germany,70569</t>
+          <t>Carleton University,Canada</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['universit stuttgart']</t>
+          <t>['carleton universit']</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04vnq7t77']]</t>
+          <t>[['https://ror.org/02qtvee93']]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Max Planck Institute Intelligent Systems,Tx00FCbingen,Germany,72076</t>
+          <t>Beijing University Technology,China</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['max planck institute intelligent systems']</t>
+          <t>['beijing universit technology']</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04fq9j139']]</t>
+          <t>[['https://ror.org/037b1pp87', 'https://ror.org/03xgzn792', 'https://ror.org/02egmk993']]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Inner Mongolia Agricultural University, Mechanical Electrical Engineering College, Hohhot, China</t>
+          <t>Department English Communication, The International Research Centre Advancement Health Communication, The Hong Kong Polytechnic University</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['inner mongolia agricultural universit', 'shenyang mechanical electrical engineering college']</t>
+          <t>['hong kong polytechnic universit']</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[['https://ror.org/015d0jq83'], ['https://ror.org/00d7f8730']]</t>
+          <t>[['https://ror.org/00q4vv597', 'https://ror.org/0030zas98']]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Department Biology, University California, San Diego, La Jolla 920930063</t>
+          <t>Department Medicine, Division Infectious Diseases, Zealand University Hospital Roskilde, Denmark</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['universit california san diego']</t>
+          <t>['zealand universit hospital']</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0168r3w48']]</t>
+          <t>[['https://ror.org/00363z010']]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Department Materials Science Engineering Dalian Maritime University Dalian 116085 China</t>
+          <t>Department Biology, Queens University, Kingston, Ontario, Canada K7L 3N6</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['dalian maritime universit']</t>
+          <t>['queens universit']</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[['https://ror.org/002b7nr53']]</t>
+          <t>[['https://ror.org/02y72wh86']]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Division Clinical Immunology, Department Medicine, University Colorado Medical School , Denver, Colorado 80220</t>
+          <t>Department Biochemistry, Queens University, Kingston, Ontario, Canada K7L 3N6</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['universit colorado anschutz medical campus']</t>
+          <t>['queens universit']</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03wmf1y16']]</t>
+          <t>[['https://ror.org/02y72wh86']]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892</t>
+          <t>Max Planck Institute Intelligent Systems,Tx00FCbingen,Germany,72076</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['max planck institute intelligent systems']</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[['https://ror.org/https://ror.org/040gcmg81', 'https://ror.org/040gcmg81']]</t>
+          <t>[['https://ror.org/04fq9j139']]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>KUTAHYA DUMLUPINAR UNIVERSITESI</t>
+          <t>Institute Flight Mechanics Controls,The Faculty Aerospace Engineering Geodesy,University Stuttgart,Stuttgart,Germany,70569</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['dumlupinar universit']</t>
+          <t>['universit stuttgart']</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03jtrja12']]</t>
+          <t>[['https://ror.org/04vnq7t77']]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Laboratory Immunology, Division Hematologic Products, Center Biologics Evaluation Research Review, US Food Drug Administration, Bethesda, MD</t>
+          <t>Inner Mongolia Agricultural University, Mechanical Electrical Engineering College, Hohhot, China</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['center biologics evaluation research']</t>
+          <t>['inner mongolia agricultural universit', 'shenyang mechanical electrical engineering college']</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02nr3fr97']]</t>
+          <t>[['https://ror.org/015d0jq83'], ['https://ror.org/00d7f8730']]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>UFZHelmholtz Centre Environmental Research, Department Community Ecology, TheodorLieserStrasse 4 Halle Germany</t>
+          <t>Department Biology, University California, San Diego, La Jolla 920930063</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['helmholtz centre environmental research']</t>
+          <t>['universit california san diego']</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[['https://ror.org/000h6jb29']]</t>
+          <t>[['https://ror.org/0168r3w48']]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CEFE, Univ Montpellier, CNRS, EPHE, IRD, 1919, route Mende Montpellier Cedex 5 France</t>
+          <t>Department Materials Science Engineering Dalian Maritime University Dalian 116085 China</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['montpellier 1 universit', 'cnrs']</t>
+          <t>['dalian maritime universit']</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[['https://ror.org/051escj72'], ['https://ror.org/02feahw73', 'https://ror.org/00675rp98']]</t>
+          <t>[['https://ror.org/002b7nr53']]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Institute Geography, University Tubingen, Rumelinstrasse 1923 Tubingen Germany</t>
+          <t>Division Clinical Immunology, Department Medicine, University Colorado Medical School , Denver, Colorado 80220</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>['universit tubingen']</t>
+          <t>['universit colorado anschutz medical campus']</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03a1kwz48']]</t>
+          <t>[['https://ror.org/03wmf1y16']]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>College Resources Environment, University Chinese Academy Sciences Beijing China</t>
+          <t>Experimental Immunology Branch, National Cancer Institute, Bethesda, MD 20892</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>['universit chinese academy sciences']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05qbk4x57']]</t>
+          <t>[['https://ror.org/https://ror.org/040gcmg81', 'https://ror.org/040gcmg81']]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Institute BiologyGeobotany Botanical Garden, Martin Luther University HalleWittenberg, Am Kirchtor 1 Halle Germany</t>
+          <t>KUTAHYA DUMLUPINAR UNIVERSITESI</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>['martin luther universit hallewittenberg']</t>
+          <t>['dumlupinar universit']</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05gqaka33']]</t>
+          <t>[['https://ror.org/03jtrja12']]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Leipzig Institute Meteorology, Universitat Leipzig, Stephanstraße 3 Leipzig Germany</t>
+          <t>Laboratory Immunology, Division Hematologic Products, Center Biologics Evaluation Research Review, US Food Drug Administration, Bethesda, MD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>['universit leipzig']</t>
+          <t>['center biologics evaluation research']</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[['https://ror.org/028hv5492']]</t>
+          <t>[['https://ror.org/02nr3fr97']]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Jiangxi Key Laboratory Plant Resources Biodiversity Jingdezhen University Jingdezhen China</t>
+          <t>CEFE, Univ Montpellier, CNRS, EPHE, IRD, 1919, route Mende Montpellier Cedex 5 France</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>['jingdezhen universit']</t>
+          <t>['universit montpellier', 'cnrs']</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[['https://ror.org/012czx379']]</t>
+          <t>[['https://ror.org/051escj72'], ['https://ror.org/02feahw73', 'https://ror.org/00675rp98']]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Institute Biology, Leipzig University, Puschstrasse 4 Leipzig Germany</t>
+          <t>Beijing Yanshan Earth Critical Zone National Research Station University Chinese Academy Sciences Beijing China</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>['leipzig universit']</t>
+          <t>['national research universit']</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03s7gtk40']]</t>
+          <t>[['https://ror.org/05sa6gg87']]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>College Forestry Jiangxi Agricultural University Nanchang China</t>
+          <t>Jiangxi Key Laboratory Plant Resources Biodiversity Jingdezhen University Jingdezhen China</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>['jiangxi agricultural universit']</t>
+          <t>['jingdezhen universit']</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00dc7s858']]</t>
+          <t>[['https://ror.org/012czx379']]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Beijing Yanshan Earth Critical Zone National Research Station University Chinese Academy Sciences Beijing China</t>
+          <t>College Resources Environment, University Chinese Academy Sciences Beijing China</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>['national research universit']</t>
+          <t>['universit chinese academy sciences']</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05sa6gg87']]</t>
+          <t>[['https://ror.org/05qbk4x57']]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Laboratory Immunology, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014</t>
+          <t>Institute General Ecology Environmental Protection, Technische Universitat Dresden, Pienner Strasse 7 Tharandt Germany</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['technische universit dresden']</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
+          <t>['https://ror.org/042aqky30']</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Blood Bank Department, Clinical Center, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014</t>
+          <t>UFZHelmholtz Centre Environmental Research, Department Community Ecology, TheodorLieserStrasse 4 Halle Germany</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
+          <t>['helmholtz centre environmental research']</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01cwqze88']]</t>
+          <t>[['https://ror.org/000h6jb29']]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Laboratory Infectious Diseases, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014</t>
+          <t>Institute Biology, Leipzig University, Puschstrasse 4 Leipzig Germany</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['leipzig universit']</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
+          <t>[['https://ror.org/03s7gtk40']]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>University Cantabria, Spain</t>
+          <t>Leipzig Institute Meteorology, Universitat Leipzig, Stephanstraße 3 Leipzig Germany</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>['universit cantabria']</t>
+          <t>['universit leipzig']</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[['https://ror.org/046ffzj20']]</t>
+          <t>[['https://ror.org/03s7gtk40']]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Department Neurosurgery, Osaka University Graduate School Medicine</t>
+          <t>Institute Geography, University Tubingen, Rumelinstrasse 1923 Tubingen Germany</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>['osaka graduate universit']</t>
+          <t>['universit tubingen']</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04a8t1e98']]</t>
+          <t>[['https://ror.org/03a1kwz48']]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Universitat Konstanz, Fakultat Biologie, Germany</t>
+          <t>Institute BiologyGeobotany Botanical Garden, Martin Luther University HalleWittenberg, Am Kirchtor 1 Halle Germany</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>['universit konstanz']</t>
+          <t>['martin luther universit hallewittenberg']</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0546hnb39']]</t>
+          <t>[['https://ror.org/05gqaka33']]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Department Medicine, Johns Hopkins Asthma Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA</t>
+          <t>College Forestry Jiangxi Agricultural University Nanchang China</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>['johns hopkins universit']</t>
+          <t>['china agricultural universit']</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00za53h95']]</t>
+          <t>[['https://ror.org/04v3ywz14']]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>College Computer Science, Civil Aviation Flight University China, Guanghan, China</t>
+          <t>Laboratory Immunology, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>['civil aviation flight universit china']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01xyb1v19']]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>University California,RoMeLa ,Los Angeles,USA</t>
+          <t>Blood Bank Department, Clinical Center, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>['universit california los angeles']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[['https://ror.org/046rm7j60']]</t>
+          <t>[['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SULEYMAN DEMIREL UNIVERSITESI</t>
+          <t>Laboratory Infectious Diseases, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland , , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>['suleyman demirel universit']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02s8x5a25']]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Columbia University,USA</t>
+          <t>University Cantabria, Spain</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>['columbia universit']</t>
+          <t>['universit cantabria']</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00hj8s172']]</t>
+          <t>[['https://ror.org/046ffzj20']]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cornell University,Department Computer Science,Ithaca,NY,USA</t>
+          <t>Department Neurosurgery, Osaka University Graduate School Medicine</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>['cornell universit']</t>
+          <t>['osaka graduate universit']</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05bnh6r87']]</t>
+          <t>[['https://ror.org/04a8t1e98']]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>School Electronic Information Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China</t>
+          <t>Universitat Konstanz, Fakultat Biologie, Germany</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>['shanghai jiao tong universit']</t>
+          <t>['universit konstanz']</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0220qvk04']]</t>
+          <t>[['https://ror.org/0546hnb39']]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Massachusetts Institute Technology,Laboratory Information Decision Systems,Cambridge,MA,USA,02139</t>
+          <t>Department Medicine, Johns Hopkins Asthma Allergy Center, Johns Hopkins University, Baltimore, MD 21224, USA</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['johns hopkins universit']</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[['https://ror.org/042nb2s44']]</t>
+          <t>[['https://ror.org/00za53h95']]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Department Pathology, Uniformed Services University Health Sciences, Bethesda, MD 20814</t>
+          <t>College Computer Science, Civil Aviation Flight University China, Guanghan, China</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>['uniformed services universit health sciences']</t>
+          <t>['civil aviation flight universit china']</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04r3kq386']]</t>
+          <t>[['https://ror.org/01xyb1v19']]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Department Oral Maxillofacial Surgery, School Dentistry, Pusan National University, Yangsan, Korea</t>
+          <t>University California,RoMeLa ,Los Angeles,USA</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>['pusan national universit']</t>
+          <t>['universit california los angeles']</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01an57a31']]</t>
+          <t>[['https://ror.org/046rm7j60']]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>School Materials Sun YatSen University Guangzhou Guangdong 510275 China</t>
+          <t>SULEYMAN DEMIREL UNIVERSITESI</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>['sun yatsen universit']</t>
+          <t>['suleyman demirel universit']</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0064kty71']]</t>
+          <t>[['https://ror.org/04fjtte88']]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>South China Academy Advanced Optoelectronics South China Normal University Guangzhou 510006 China</t>
+          <t>School Electronic Information Electrical Engineering, Shanghai Jiao Tong University,Shanghai,China</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>['south china normal universit']</t>
+          <t>['shanghai jiao tong universit']</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01kq0pv72']]</t>
+          <t>[['https://ror.org/0220qvk04']]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Guangzhou Key Laboratory Analytical Chemistry Biomedicine South China Normal University Guangzhou 510006 China</t>
+          <t>Columbia University,USA</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>['south china normal universit']</t>
+          <t>['columbia universit']</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01kq0pv72']]</t>
+          <t>[['https://ror.org/00hj8s172']]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Department Materials Science Engineering Sun YatSen University Guangzhou 510275 China</t>
+          <t>Cornell University,Department Computer Science,Ithaca,NY,USA</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>['sun yatsen universit']</t>
+          <t>['cornell universit']</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0064kty71']]</t>
+          <t>[['https://ror.org/05bnh6r87']]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Laboratory Microbiology Immunology, National Institute Dental Research, National Institutes Health From , Bethesda, Maryland , , Washington, District Columbia</t>
+          <t>Massachusetts Institute Technology,Laboratory Information Decision Systems,Cambridge,MA,USA,02139</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>['national institutes health']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01cwqze88']]</t>
+          <t>[['https://ror.org/042nb2s44']]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Department Microbiology, The George Washington University Medical Center From , Bethesda, Maryland , , Washington, District Columbia</t>
+          <t>Department Pathology, Uniformed Services University Health Sciences, Bethesda, MD 20814</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>['universit washington medical center']</t>
+          <t>['uniformed services universit health sciences']</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00wbzw723']]</t>
+          <t>[['https://ror.org/04r3kq386']]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Institute General Pathology, University Palermo, ISMEDACNR, Italy</t>
+          <t>Department Oral Maxillofacial Surgery, School Dentistry, Pusan National University, Yangsan, Korea</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>['universit palermo']</t>
+          <t>['pusan national universit']</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04fz79c74']]</t>
+          <t>[['https://ror.org/01an57a31']]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>University ErlangenNurnberg, Faculty Medicine, Department Medicine IV, Erlangen, Germany</t>
+          <t>South China Academy Advanced Optoelectronics South China Normal University Guangzhou 510006 China</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>['universit erlangen']</t>
+          <t>['south china normal universit']</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0030f2a11']]</t>
+          <t>[['https://ror.org/01kq0pv72']]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Department Chemistry, University British Columbia, Vancouver, BC, Canada, V6T 1Z1</t>
+          <t>School Materials Sun YatSen University Guangzhou Guangdong 510275 China</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
+          <t>['sun yatsen universit']</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03rmrcq20']]</t>
+          <t>[['https://ror.org/0064kty71']]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BCN MedTech, Department Information Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain</t>
+          <t>Guangzhou Key Laboratory Analytical Chemistry Biomedicine South China Normal University Guangzhou 510006 China</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>['universit pompeu fabra']</t>
+          <t>['south china normal universit']</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04n0g0b29']]</t>
+          <t>[['https://ror.org/01kq0pv72']]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Serra Hx00FAnter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain</t>
+          <t>Department Materials Science Engineering Sun YatSen University Guangzhou 510275 China</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>['universit pompeu fabra']</t>
+          <t>['sun yatsen universit']</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04n0g0b29']]</t>
+          <t>[['https://ror.org/0064kty71']]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Department Biomedical Engineering Mechanics, Virginia Tech, Blacksburg, VA, USA</t>
+          <t>Laboratory Microbiology Immunology, National Institute Dental Research, National Institutes Health From , Bethesda, Maryland , , Washington, District Columbia</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>['virginia tech']</t>
+          <t>['national institutes health']</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02smfhw86']]</t>
+          <t>[['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PhD Candidate, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 Lecture Research Assistant, Dept Structural Engineering, Future Univ, Cairo 11835, Egypt</t>
+          <t>Department Microbiology, The George Washington University Medical Center From , Bethesda, Maryland , , Washington, District Columbia</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>['universit manitoba', 'future universit']</t>
+          <t>['washington universit medical center']</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02gfys938'], ['https://ror.org/0092t1z08']]</t>
+          <t>[['https://ror.org/036c27j91']]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Professor, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 </t>
+          <t>Institute General Pathology, University Palermo, ISMEDACNR, Italy</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>['universit manitoba']</t>
+          <t>['universit palermo']</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02gfys938']]</t>
+          <t>[['https://ror.org/044k9ta02']]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador</t>
+          <t>University ErlangenNurnberg, Faculty Medicine, Department Medicine IV, Erlangen, Germany</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>['salesian universit']</t>
+          <t>['universit erlangen']</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04vhngq09']]</t>
+          <t>[['https://ror.org/0030f2a11']]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Department Transplantation Immunology, Institute Immunology, University Heidelberg, Germany</t>
+          <t>Department Chemistry, University British Columbia, Vancouver, BC, Canada, V6T 1Z1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>['universit heidelberg']</t>
+          <t>['universit british columbia']</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04b85d432']]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Graphic Era Hill University,Department ECE,Bhimtal,India</t>
+          <t>Department Biomedical Engineering Mechanics, Virginia Tech, Blacksburg, VA, USA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>['graphic era universit']</t>
+          <t>['virginia tech']</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03wqgqd89']]</t>
+          <t>[['https://ror.org/02smfhw86']]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Graphic Era University,Department ECE,Dehradun,India</t>
+          <t>Serra Hx00FAnter Fellow Programme, Universitat Pompeu Fabra, Barcelona, Spain</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>['graphic era universit']</t>
+          <t>['universit pompeu fabra']</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03wqgqd89']]</t>
+          <t>[['https://ror.org/04n0g0b29']]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>KAHRAMANMARAS SUTCU IMAM UNIVERSITESI, KAHRAMANMARAS MESLEK YUKSEKOKULU</t>
+          <t>BCN MedTech, Department Information Communication Technologies, Universitat Pompeu Fabra, Barcelona, Spain</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit']</t>
+          <t>['universit pompeu fabra']</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03gn5cg19']]</t>
+          <t>[['https://ror.org/04n0g0b29']]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Department Pathology, University Maryland, School Medicine, Baltimore 21201</t>
+          <t xml:space="preserve">Professor, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>['universit maryland baltimore county']</t>
+          <t>['universit manitoba']</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02qskvh78']]</t>
+          <t>[['https://ror.org/02gfys938']]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Department Biomedical Laboratory Science Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic Korea</t>
+          <t>PhD Candidate, Dept Civil Engineering, Univ Manitoba, Winnipeg, MB, Canada R3T 5V6 Lecture Research Assistant, Dept Structural Engineering, Future Univ, Cairo 11835, Egypt</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>['far east universit']</t>
+          <t>['universit manitoba', 'future universit']</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03ms7mr17']]</t>
+          <t>[['https://ror.org/02gfys938'], ['https://ror.org/0092t1z08']]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>National Institute Immunology, New Delhi, India</t>
+          <t>Salesian Polytechnic University,Electrical engineering department,Quito,Ecuador</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>['national institute immunology']</t>
+          <t>['salesian universit']</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04fhee747']]</t>
+          <t>[['https://ror.org/04vhngq09']]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Department Pathology, University Iowa College Medicine, Iowa City 52242</t>
+          <t>Department Transplantation Immunology, Institute Immunology, University Heidelberg, Germany</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>['universit iowa']</t>
+          <t>['universit heidelberg']</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[['https://ror.org/036jqmy94']]</t>
+          <t>[['https://ror.org/04b85d432']]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Centre National la Recherche Scientifique, Unite Recherche Associee 1461,</t>
+          <t>Graphic Era University,Department ECE,Dehradun,India</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>['centre national la recherche scientifique']</t>
+          <t>['graphic era universit']</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02feahw73', 'https://ror.org/00675rp98']]</t>
+          <t>[['https://ror.org/03wqgqd89']]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Duke University Medical Center , Durham, N C</t>
+          <t>Graphic Era Hill University,Department ECE,Bhimtal,India</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>['duke universit medical center']</t>
+          <t>['graphic era hill universit']</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03njmea73', 'https://ror.org/04bct7p84']]</t>
+          <t>['https://ror.org/01bb4h160']</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Division Critical Care, Childrens Hospital Medical Center, Cincinnati, OH 45229</t>
+          <t>KAHRAMANMARAS SUTCU IMAM UNIVERSITESI, KAHRAMANMARAS MESLEK YUKSEKOKULU</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>['childrens hospital medical center']</t>
+          <t>['kahramanmaras sutcu imam universit']</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04j36h363']]</t>
+          <t>[['https://ror.org/03gn5cg19']]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Department Pathophysiology, University Medical School Debrecen, Debrecen, Hungary</t>
+          <t>Department Pathology, University Maryland, School Medicine, Baltimore 21201</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>['universit minnesota medical school']</t>
+          <t>['universit maryland baltimore county']</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04jnprq39']]</t>
+          <t>[['https://ror.org/02qskvh78']]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Departments Pathology Microbiology, Washington University School Medicine From , St Louis, Missouri 63110</t>
+          <t>Department Biomedical Laboratory Science Microbiological Resource Research Institute, Far East University, Eumseong 27601, Republic Korea</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>['universit washington school medicine']</t>
+          <t>['far east universit']</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03ymk3103']]</t>
+          <t>[['https://ror.org/03ms7mr17']]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Professor, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea</t>
+          <t>National Institute Immunology, New Delhi, India</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>['chonnam national universit']</t>
+          <t>['national institute immunology']</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05kzjxq56', 'https://ror.org/0227as991']]</t>
+          <t>[['https://ror.org/04fhee747']]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Resident, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea</t>
+          <t>Department Pathology, University Iowa College Medicine, Iowa City 52242</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>['chonnam national universit']</t>
+          <t>['universit iowa']</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05kzjxq56', 'https://ror.org/0227as991']]</t>
+          <t>[['https://ror.org/036jqmy94']]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Department Psychology, University Toronto, Toronto, ON M5S 3G3, Canada</t>
+          <t>Institut National la Sante la Recherche Medicale U345, Institut Necker,</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>['universit toronto']</t>
+          <t>['institut national la sante la recherche medicale']</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03dbr7087']]</t>
+          <t>['https://ror.org/02vjkv261']</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>International Research Center Neurointelligence , Institutes Advanced Study , The University Tokyo, Tokyo 1130033, Japan</t>
+          <t>Centre National la Recherche Scientifique, Unite Recherche Associee 1461,</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>['universit tokyo']</t>
+          <t>['centre national la recherche scientifique']</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00dgyv454', 'https://ror.org/057zh3y96', 'https://ror.org/01etn5q21']]</t>
+          <t>[['https://ror.org/02feahw73', 'https://ror.org/00675rp98']]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Laboratoire Sciences Cognitives Psycholinguistique, Ecole Normale Superieure, Paris Sciences Lettres, 75005 Paris, France</t>
+          <t>Duke University Medical Center , Durham, N C</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>['ecole normale superieure', 'laboratoire sciences cognitives psycholinguistique']</t>
+          <t>['duke universit medical center']</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05a0dhs15'], ['https://ror.org/05fvhm231']]</t>
+          <t>[['https://ror.org/03njmea73', 'https://ror.org/04bct7p84']]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Senior Lecturer Department Civil Labor Law Department Odesa National Maritime University</t>
+          <t>Division Critical Care, Childrens Hospital Medical Center, Cincinnati, OH 45229</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>['national universit']</t>
+          <t>['childrens hospital medical center']</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[['https://ror.org/000a8qk84']]</t>
+          <t>[['https://ror.org/04j36h363']]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Doctor Law , Professor, Head educational scientific laboratory legal regulation shipping cargo protection, Professor Civil Labor Law Department Odessa National Maritime University</t>
+          <t>Department Pathophysiology, University Medical School Debrecen, Debrecen, Hungary</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>['odessa national maritime universit']</t>
+          <t>['cooper medical school rowan universit']</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05qze6v15']]</t>
+          <t>[['https://ror.org/007evha27']]</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Department Life Science School Environmental Engineering, Pohang University Science Technology, Pohang, South Korea</t>
+          <t>Departments Pathology Microbiology, Washington University School Medicine From , St Louis, Missouri 63110</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>['pohang universit science technology']</t>
+          <t>['universit washington school medicine']</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04xysgw12']]</t>
+          <t>[['https://ror.org/03ymk3103']]</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>University Illinois From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas</t>
+          <t>Professor, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>['universit illinois']</t>
+          <t>['chonnam national universit']</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[['https://ror.org/047426m28']]</t>
+          <t>[['https://ror.org/05kzjxq56', 'https://ror.org/0227as991']]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Department Microbiology, University Miami School Medicine From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas</t>
+          <t>Resident, Department Conservative Dentistry, Chonnam National University, Gwangju, Republic Korea</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>['universit miami']</t>
+          <t>['chonnam national universit']</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02dgjyy92']]</t>
+          <t>[['https://ror.org/05kzjxq56', 'https://ror.org/0227as991']]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Faculty Food Technology Biotechnology, University Zagreb, Croatia</t>
+          <t>Department Psychology, University Toronto, Toronto, ON M5S 3G3, Canada</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>['universit zagreb']</t>
+          <t>['universit toronto']</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00mv6sv71']]</t>
+          <t>[['https://ror.org/03dbr7087']]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HSE University, Moscow</t>
+          <t>International Research Center Neurointelligence , Institutes Advanced Study , The University Tokyo, Tokyo 1130033, Japan</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>['universit']</t>
+          <t>['universit tokyo']</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04rr26086']]</t>
+          <t>[['https://ror.org/00dgyv454', 'https://ror.org/057zh3y96', 'https://ror.org/01etn5q21']]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>University Malaga, Испания</t>
+          <t>Laboratoire Sciences Cognitives Psycholinguistique, Ecole Normale Superieure, Paris Sciences Lettres, 75005 Paris, France</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>['universit malaga']</t>
+          <t>['ecole normale superieure', 'laboratoire sciences cognitives psycholinguistique']</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[['https://ror.org/036b2ww28']]</t>
+          <t>[['https://ror.org/05a0dhs15'], ['https://ror.org/05fvhm231']]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>University Maryland College Park,Department Computer Science</t>
+          <t>Senior Lecturer Department Civil Labor Law Department Odesa National Maritime University</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>['universit maryland college park']</t>
+          <t>['national universit']</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[['https://ror.org/047s2c258']]</t>
+          <t>[['https://ror.org/000a8qk84']]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>University Memphis,Department Computer Science</t>
+          <t>Doctor Law , Professor, Head educational scientific laboratory legal regulation shipping cargo protection, Professor Civil Labor Law Department Odessa National Maritime University</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>['universit memphis']</t>
+          <t>['odessa national maritime universit']</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01cq23130']]</t>
+          <t>[['https://ror.org/05qze6v15']]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Department Psychiatry, University British Columbia, Vancouver, Canada</t>
+          <t>Department Life Science School Environmental Engineering, Pohang University Science Technology, Pohang, South Korea</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
+          <t>['pohang universit science technology']</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03rmrcq20']]</t>
+          <t>[['https://ror.org/04xysgw12']]</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Department Psychology, University British Columbia, Vancouver, Canada</t>
+          <t>University Illinois From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
+          <t>['universit illinois']</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03rmrcq20']]</t>
+          <t>[['https://ror.org/047426m28']]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Department Psychology, Simon Fraser University, Burnaby, Canada</t>
+          <t>Department Microbiology, University Miami School Medicine From , Miami, Florida , , Urbana, Illinois , Bimini, Bahamas</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>['simon fraser universit']</t>
+          <t>['miami universit']</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0213rcc28']]</t>
+          <t>[['https://ror.org/05nbqxr67', 'https://ror.org/02dgjyy92']]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Almetyevsk State Oil Institute</t>
+          <t>Department Electrical Computer Engineering, National Yang Ming Chiao Tung University, Hsinchu, Taiwan</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>['almetyevsk state oil institute']</t>
+          <t>['national yang ming chiao tung universit']</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00g1je163']]</t>
+          <t>['https://ror.org/00se2k293']</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>University Texas Medical Branch, Department Internal Medicine, Galveston 77555, USA</t>
+          <t>Faculty Food Technology Biotechnology, University Zagreb, Croatia</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>['universit texas medical branch galveston']</t>
+          <t>['universit zagreb']</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[['https://ror.org/016tfm930']]</t>
+          <t>[['https://ror.org/00mv6sv71']]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Assistant Professor, Department Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India</t>
+          <t>HSE University, Moscow</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>['bharathiar universit']</t>
+          <t>['universit']</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04fht8c22']]</t>
+          <t>[['https://ror.org/04rr26086']]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>National University Uzbekistan named after M Ulugbek</t>
+          <t>University Malaga, Испания</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>['national universit uzbekistan']</t>
+          <t>['universit malaga']</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>[['https://ror.org/011647w73']]</t>
+          <t>[['https://ror.org/036b2ww28']]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Department Pathology, New England Medical Center, Boston, MA 02111</t>
+          <t>University Maryland College Park,Department Computer Science</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>['tuftsnew england medical center']</t>
+          <t>['universit maryland college park']</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>[['https://ror.org/002hsbm82']]</t>
+          <t>[['https://ror.org/047s2c258']]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Adıyaman Universitesi</t>
+          <t>University Memphis,Department Computer Science</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>['adıyaman universit']</t>
+          <t>['universit memphis']</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02s4gkg68']]</t>
+          <t>[['https://ror.org/01cq23130']]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>University Washington Fred Hutchinson Cancer Center</t>
+          <t>Department Psychology, University British Columbia, Vancouver, Canada</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>['universit washington']</t>
+          <t>['universit british columbia']</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00cvxb145']]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Department Clinical Laboratory The Third Medical Centre Chinese PLA General Hospital The Training Site Postgraduate Jinzhou Medical University Beijing China</t>
+          <t>Department Psychiatry, University British Columbia, Vancouver, Canada</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>['china medical universit']</t>
+          <t>['universit british columbia']</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00v408z34']]</t>
+          <t>[['https://ror.org/03rmrcq20']]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sobolev Institute Mathematics, Siberian Branch Russian Academy Sciences</t>
+          <t>Department Psychology, Simon Fraser University, Burnaby, Canada</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>['siberian branch russian academy sciences']</t>
+          <t>['simon fraser universit']</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02frkq021']]</t>
+          <t>[['https://ror.org/0213rcc28']]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Brown University, Providence, RI, USA</t>
+          <t>Almetyevsk State Oil Institute</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>['brown universit']</t>
+          <t>['almetyevsk state oil institute']</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05gq02987']]</t>
+          <t>[['https://ror.org/00g1je163']]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>School Mechanical Engineering, Xinjiang University, Wulumuqi, Peoples Republic China</t>
+          <t>University Texas Medical Branch, Department Internal Medicine, Galveston 77555, USA</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>['xinjiang universit']</t>
+          <t>['universit texas medical branch galveston']</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>[['https://ror.org/059gw8r13']]</t>
+          <t>[['https://ror.org/016tfm930']]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Department Pathology, University Michigan Medical School, Ann Arbor 48109, USA</t>
+          <t>Assistant Professor, Department Microbial Biotechnology, Bharathiar University, Coimbatore 641046, Tamil Nadu, India</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>['universit michigan medical school']</t>
+          <t>['bharathiar universit']</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[['https://ror.org/028p1nc07']]</t>
+          <t>[['https://ror.org/04fht8c22']]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Department Forest Engineering, Resources, Management Oregon State University Corvallis OR USA</t>
+          <t>National University Uzbekistan named after M Ulugbek</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>['state universit management']</t>
+          <t>['national universit uzbekistan']</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00nxz6d14']]</t>
+          <t>[['https://ror.org/011647w73']]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Cancer Biology Research Laboratory, Department Radiology, Stanford University School Medicine From , Stanford, California 94305</t>
+          <t>Department Pathology, New England Medical Center, Boston, MA 02111</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>['stanford universit school medicine']</t>
+          <t>['tuftsnew england medical center']</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03mtd9a03']]</t>
+          <t>[['https://ror.org/002hsbm82']]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Dermatology Branch, National Cancer Institute, Bethesda, MD 20892</t>
+          <t>Adıyaman Universitesi</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>['national cancer institute']</t>
+          <t>['adıyaman universit']</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>[['https://ror.org/https://ror.org/040gcmg81', 'https://ror.org/040gcmg81']]</t>
+          <t>[['https://ror.org/02s4gkg68']]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Departments Medicine Microbiology, College Physicians Surgeons, Columbia University From , New York, New York</t>
+          <t>University Washington Fred Hutchinson Cancer Center</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>['columbia universit']</t>
+          <t>['universit washington']</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00hj8s172']]</t>
+          <t>[['https://ror.org/00cvxb145']]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Institut National la Sante la Recherche Medicale, CJF 9501, Institut Curie, Section Recherche, Paris, France</t>
+          <t>Department Clinical Laboratory The Third Medical Centre Chinese PLA General Hospital The Training Site Postgraduate Jinzhou Medical University Beijing China</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>['institut curie']</t>
+          <t>['china medical universit']</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04t0gwh46']]</t>
+          <t>[['https://ror.org/00v408z34']]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>University Johannesburg, South Africa</t>
+          <t>Sobolev Institute Mathematics, Siberian Branch Russian Academy Sciences</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>['universit johannesburg']</t>
+          <t>['siberian branch russian academy sciences']</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04z6c2n17']]</t>
+          <t>[['https://ror.org/02frkq021']]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Hult International Business School, Greece</t>
+          <t>Brown University, Providence, RI, USA</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>['hult international business school']</t>
+          <t>['brown universit']</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01my2ss20']]</t>
+          <t>[['https://ror.org/05gq02987']]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Glasgow Caledonian University, UK</t>
+          <t>School Mechanical Engineering, Xinjiang University, Wulumuqi, Peoples Republic China</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>['glasgow caledonian universit']</t>
+          <t>['xinjiang universit']</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03dvm1235']]</t>
+          <t>[['https://ror.org/059gw8r13']]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">From Cardiovascular Medicine Section, Department Medicine, Boston Medical Center Myocardial Biology Unit, Boston University School Medicine, Boston, Mass , Institute Cell Biology, Swiss Federal Institute Technology, Zurich, Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland </t>
+          <t>Department Pathology, University Michigan Medical School, Ann Arbor 48109, USA</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>['boston universit', 'swiss federal institute technology lausanne', 'institute cell biology']</t>
+          <t>['universit michigan medical school']</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05qwgg493'], ['https://ror.org/02s376052'], ['https://ror.org/04fg7fb49']]</t>
+          <t>[['https://ror.org/028p1nc07']]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BURSA TECHNICAL UNIVERSITY</t>
+          <t>Department Forest Engineering, Resources, Management Oregon State University Corvallis OR USA</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>['bursa technical universit']</t>
+          <t>['state universit management']</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03rdpn141']]</t>
+          <t>[['https://ror.org/00nxz6d14']]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BURSA TEKNIK UNIVERSITESI</t>
+          <t>Cancer Biology Research Laboratory, Department Radiology, Stanford University School Medicine From , Stanford, California 94305</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>['bursa teknik universit']</t>
+          <t>['stanford universit school medicine']</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03rdpn141']]</t>
+          <t>[['https://ror.org/03mtd9a03']]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Department Biochemistry, Kyushu University School Dentistry, Fukuoka, Japan</t>
+          <t>Dermatology Branch, National Cancer Institute, Bethesda, MD 20892</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>['kyushu universit']</t>
+          <t>['national cancer institute']</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03m60k875', 'https://ror.org/00p4k0j84']]</t>
+          <t>[['https://ror.org/https://ror.org/040gcmg81', 'https://ror.org/040gcmg81']]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Department Pathology, Yale University School Medicine From , New Haven, Connecticut</t>
+          <t>Departments Medicine Microbiology, College Physicians Surgeons, Columbia University From , New York, New York</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>['yale universit']</t>
+          <t>['columbia universit']</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03v76x132']]</t>
+          <t>[['https://ror.org/00hj8s172']]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>HeriotWatt University</t>
+          <t>Institut National la Sante la Recherche Medicale, CJF 9501, Institut Curie, Section Recherche, Paris, France</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>['heriotwatt universit']</t>
+          <t>['institut national la sante la recherche medicale', 'institut curie']</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0059w0420']]</t>
+          <t>['https://ror.org/02vjkv261', ['https://ror.org/04t0gwh46']]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Dept Electrical Electronics Engineering, Yasar University, Izmir, Turkey</t>
+          <t>University Johannesburg, South Africa</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>['yasar universit']</t>
+          <t>['universit johannesburg']</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00dz1eb96']]</t>
+          <t>[['https://ror.org/04z6c2n17']]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>The Graduate School Natural Sciences, Dokuz Eylul University, Izmir, Turkey</t>
+          <t>Glasgow Caledonian University, UK</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>['dokuz eylul universit']</t>
+          <t>['glasgow caledonian universit']</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00dbd8b73']]</t>
+          <t>[['https://ror.org/03dvm1235']]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Section on Biologic Structure, Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014</t>
+          <t>Hult International Business School, Greece</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
+          <t>['hult international business school']</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
+          <t>[['https://ror.org/01my2ss20']]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>AFYON KOCATEPE UNIVERSITESI, AFYON MESLEK YUKSEKOKULU</t>
+          <t xml:space="preserve">From Cardiovascular Medicine Section, Department Medicine, Boston Medical Center Myocardial Biology Unit, Boston University School Medicine, Boston, Mass , Institute Cell Biology, Swiss Federal Institute Technology, Zurich, Swiss Cardiovascular Center Bern, Inselspital, Bern, Switzerland </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>['afyon kocatepe universit']</t>
+          <t>['boston universit', 'swiss federal institute technology lausanne', 'institute cell biology']</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03a1crh56']]</t>
+          <t>[['https://ror.org/05qwgg493'], ['https://ror.org/02s376052'], ['https://ror.org/04fg7fb49']]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Department Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvagen 18D, SE752 36 Uppsala, Sweden</t>
+          <t>BURSA TEKNIK UNIVERSITESI</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>['uppsala universit']</t>
+          <t>['bursa teknik universit']</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>[['https://ror.org/048a87296']]</t>
+          <t>[['https://ror.org/03rdpn141']]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Cooperative Research Center, Tokyo University Agriculture Technology, Koganei, Tokyo 1848588, Japan</t>
+          <t>BURSA TECHNICAL UNIVERSITY</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>['tokyo universit agriculture technology']</t>
+          <t>['bursa technical universit']</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00qg0kr10']]</t>
+          <t>[['https://ror.org/03rdpn141']]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Department Medicine, University Utah School Medicine, Salt Lake City 84132, USA</t>
+          <t>Department Biochemistry, Kyushu University School Dentistry, Fukuoka, Japan</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>['universit utah']</t>
+          <t>['kyushu universit']</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03r0ha626']]</t>
+          <t>[['https://ror.org/03m60k875', 'https://ror.org/00p4k0j84']]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Department Chemistry, University California Santa Barbara , Boston, Massachusetts 02115 , , Santa Barbara, California 93106</t>
+          <t>Department Pathology, Yale University School Medicine From , New Haven, Connecticut</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>['universit california santa barbara']</t>
+          <t>['yale universit']</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02t274463']]</t>
+          <t>[['https://ror.org/03v76x132']]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Institute Systems Robotics, Instituto Superior Tx00E9cnico,Lisbon,Portugal</t>
+          <t>HeriotWatt University</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>['institute intelligent systems robotics']</t>
+          <t>['heriotwatt universit']</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05neq8668']]</t>
+          <t>[['https://ror.org/0059w0420']]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Contribution Departamento Quimica Organica I, Facultad Quimica, Universidad del Pais Vasco, Apdo 1072, 20080 San Sebastian, Spain Departamento Quimica Aplicada, Universidad Publica Navarra, Campus Arrosadia, 31006 Pamplona, Spain Unidade Resonancia Magnetica, RIAIDT, CACTUS, Universidad Santiago Compostela, 15782 A Coruna, Spain Organischchemisches Institut der Universitat Zurich, Winterthurerstrasse 190, CH8057, Zurich, Switzerland</t>
+          <t xml:space="preserve">Russian University Transport </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>['universidad publica navarra', 'universidad santiago compostela', 'universidad del pais vasco']</t>
+          <t>['russian universit transport']</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02z0cah89'], ['https://ror.org/030eybx10'], ['https://ror.org/000xsnr85']]</t>
+          <t>['https://ror.org/05gba0366']</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>OSMANIYE KORKUT ATA UNIVERSITESI</t>
+          <t>Dept Electrical Electronics Engineering, Yasar University, Izmir, Turkey</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>['osmaniye korkut ata universit']</t>
+          <t>['yasar universit']</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03h8sa373']]</t>
+          <t>[['https://ror.org/00dz1eb96']]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>School Public Health, Department Environmental Health, Moi University, Eldoret, Kenya</t>
+          <t>The Graduate School Natural Sciences, Dokuz Eylul University, Izmir, Turkey</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
+          <t>['dokuz eylul universit']</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04p6eac84']]</t>
+          <t>[['https://ror.org/00dbd8b73']]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>School Public Health, Department Health Policy Management Human Nutrition, Moi University, Eldoret, Kenya</t>
+          <t>Section on Biologic Structure, Laboratory Clinical Investigation, National Institute Allergy Infectious Diseases, National Institutes Health From , Bethesda, Maryland 20014</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
+          <t>['national institute allergy infectious diseases', 'national institutes health']</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04p6eac84']]</t>
+          <t>[['https://ror.org/043z4tv69'], ['https://ror.org/01cwqze88']]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>School Education, Department Education Psychology, Moi University, Eldoret, Kenya</t>
+          <t>AFYON KOCATEPE UNIVERSITESI, AFYON MESLEK YUKSEKOKULU</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
+          <t>['afyon kocatepe universit']</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04p6eac84']]</t>
+          <t>[['https://ror.org/03a1crh56']]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Department Population Health, Aga Khan University East Africa, Nairobi</t>
+          <t>Department Evolutionary Biology, Evolutionary Biology Centre, Uppsala University, Norbyvagen 18D, SE752 36 Uppsala, Sweden</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>['east africa universit']</t>
+          <t>['uppsala universit']</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>[['https://ror.org/058c2zn82']]</t>
+          <t>[['https://ror.org/048a87296']]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>School School Nursing, Department Midwifery Gender, Moi University, Eldoret, Kenya</t>
+          <t>Cooperative Research Center, Tokyo University Agriculture Technology, Koganei, Tokyo 1848588, Japan</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>['moi universit']</t>
+          <t>['tokyo universit agriculture technology']</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04p6eac84']]</t>
+          <t>[['https://ror.org/00qg0kr10']]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>State Key Laboratory Molecular Oncology, National Cancer CenterNational Clinical Research Center CancerCancer Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China</t>
+          <t>Department Medicine, University Utah School Medicine, Salt Lake City 84132, USA</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>['chinese academy medical sciences peking union medical college']</t>
+          <t>['universit utah']</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02drdmm93']]</t>
+          <t>[['https://ror.org/03r0ha626']]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Department Gastroenterology, Beijing Hospital, National Center Gerontology</t>
+          <t>Department Chemistry, University California Santa Barbara , Boston, Massachusetts 02115 , , Santa Barbara, California 93106</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>['national center geriatrics gerontology', 'beijing hospital']</t>
+          <t>['universit california santa barbara']</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05h0rw812'], ['https://ror.org/02jwb5s28']]</t>
+          <t>[['https://ror.org/02t274463']]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Department Gastroenterology, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China</t>
+          <t>Institute Systems Robotics, Instituto Superior Tx00E9cnico,Lisbon,Portugal</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>['peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
+          <t>['institute intelligent systems robotics']</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04jztag35'], ['https://ror.org/02drdmm93']]</t>
+          <t>[['https://ror.org/05neq8668']]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Department Internal Medicine, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China</t>
+          <t>Contribution Departamento Quimica Organica I, Facultad Quimica, Universidad del Pais Vasco, Apdo 1072, 20080 San Sebastian, Spain Departamento Quimica Aplicada, Universidad Publica Navarra, Campus Arrosadia, 31006 Pamplona, Spain Unidade Resonancia Magnetica, RIAIDT, CACTUS, Universidad Santiago Compostela, 15782 A Coruna, Spain Organischchemisches Institut der Universitat Zurich, Winterthurerstrasse 190, CH8057, Zurich, Switzerland</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>['peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
+          <t>['universidad del pais vasco', 'universidad santiago compostela', 'universidad publica navarra']</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04jztag35'], ['https://ror.org/02drdmm93']]</t>
+          <t>[['https://ror.org/000xsnr85'], ['https://ror.org/030eybx10'], ['https://ror.org/02z0cah89']]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>School Electrical Engineering Automation, Harbin Institute Technology, Harbin, China</t>
+          <t>OSMANIYE KORKUT ATA UNIVERSITESI</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>['harbin institute technology']</t>
+          <t>['osmaniye korkut ata universit']</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01yqg2h08']]</t>
+          <t>[['https://ror.org/03h8sa373']]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Departments Surgery Microbiology Public Health, Michigan State University From , East Lansing, Michigan 48824</t>
+          <t>School School Nursing, Department Midwifery Gender, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>['michigan state universit']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05hs6h993']]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Ahsanullah University Science Technology,Dept Electrical Electronic Engineering,Dhaka,Bangladesh</t>
+          <t>School Public Health, Department Environmental Health, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>['ahsanullah universit science technology']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04wfbp123']]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Osaka University</t>
+          <t>School Public Health, Department Health Policy Management Human Nutrition, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>['osaka universit']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>[['https://ror.org/035t8zc32']]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Department Microbiology, University Texas Health Science Center, San Antonio 78284</t>
+          <t>School Education, Department Education Psychology, Moi University, Eldoret, Kenya</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>['universit texas health science center houston']</t>
+          <t>['moi universit']</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03gds6c39']]</t>
+          <t>[['https://ror.org/04p6eac84']]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Rockefeller University , New York, New York 10021</t>
+          <t>Department Population Health, Aga Khan University East Africa, Nairobi</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>['rockefeller universit']</t>
+          <t>['aga khan universit']</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0420db125']]</t>
+          <t>[['https://ror.org/02wwrqj12']]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Chuvash State University</t>
+          <t>State Key Laboratory Molecular Oncology, National Cancer CenterNational Clinical Research Center CancerCancer Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>['chuvash state universit']</t>
+          <t>['chinese academy medical sciences peking union medical college']</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01jmd7f74']]</t>
+          <t>[['https://ror.org/02drdmm93']]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Department Paediatric Gastroenterology, St Bartholomews The Royal London School Medicine Dentistry, St Bartholomews Hospital, London, United Kingdom</t>
+          <t>Department Gastroenterology, Beijing Hospital, National Center Gerontology</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>['st bartholomews hospital']</t>
+          <t>['national center geriatrics gerontology', 'beijing hospital']</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00nh9x179']]</t>
+          <t>[['https://ror.org/05h0rw812'], ['https://ror.org/02jwb5s28']]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Samara State University Economics </t>
+          <t>Department Gastroenterology, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>['samara state universit economics']</t>
+          <t>['peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02wsba348']]</t>
+          <t>[['https://ror.org/04jztag35'], ['https://ror.org/02drdmm93']]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Universidad Tecnica Machala, Programa maestria en Medicina Veterinaria, mencion Clinica y Cirugia Pequenas Especies Machala, El Oro, Ecuador RenatoVetDerm Davie, Florida, Estados Unidos America</t>
+          <t>Department Internal Medicine, Peking Union Medical College Hospital, Chinese Academy Medical Sciences Peking Union Medical College , Beijing , China</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>['universidad tecnica machala']</t>
+          <t>['peking union medical college hospital', 'chinese academy medical sciences peking union medical college']</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>[['https://ror.org/036zk8k10']]</t>
+          <t>[['https://ror.org/04jztag35'], ['https://ror.org/02drdmm93']]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Universidad Cientifica del Sur Lima, Peru</t>
+          <t>School Electrical Engineering Automation, Harbin Institute Technology, Harbin, China</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>['universidad cientifica del sur']</t>
+          <t>['harbin institute technology']</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04xr5we72']]</t>
+          <t>[['https://ror.org/01yqg2h08']]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Peng Cheng Laboratory,Shenzhen,China</t>
+          <t>Departments Surgery Microbiology Public Health, Michigan State University From , East Lansing, Michigan 48824</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>['peng cheng laboratory']</t>
+          <t>['michigan state universit']</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03qdqbt06']]</t>
+          <t>[['https://ror.org/05hs6h993']]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Department Plant Biology, University Illinois, Urbana 61801, USA</t>
+          <t>Ahsanullah University Science Technology,Dept Electrical Electronic Engineering,Dhaka,Bangladesh</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>['universit illinois']</t>
+          <t>['ahsanullah universit science technology']</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>[['https://ror.org/047426m28']]</t>
+          <t>[['https://ror.org/04wfbp123']]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>From Department Cardiovascular Medicine, School Medical Sciences , Department Biophysics, Faculty Pharmaceutical Sciences , Kyushu University, Fukuoka, Japan</t>
+          <t>Osaka University</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>['kyushu universit']</t>
+          <t>['osaka universit']</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03m60k875', 'https://ror.org/00p4k0j84']]</t>
+          <t>[['https://ror.org/035t8zc32']]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Graduate School Social Sciences, Waseda University, Japan</t>
+          <t>Department Microbiology, University Texas Health Science Center, San Antonio 78284</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>['waseda universit']</t>
+          <t>['universit texas health science center tyler']</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00ntfnx83']]</t>
+          <t>[['https://ror.org/01sps7q28']]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Faculty Social Sciences, Waseda University, Japan</t>
+          <t>Rockefeller University , New York, New York 10021</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>['waseda universit']</t>
+          <t>['rockefeller universit']</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00ntfnx83']]</t>
+          <t>[['https://ror.org/0420db125']]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Chuvash State University</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['chuvash state universit']</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/01jmd7f74']]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States</t>
+          <t>Department Paediatric Gastroenterology, St Bartholomews The Royal London School Medicine Dentistry, St Bartholomews Hospital, London, United Kingdom</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>['memorial sloan kettering cancer center']</t>
+          <t>['st bartholomews hospital']</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>[['https://ror.org/02yrq0923']]</t>
+          <t>[['https://ror.org/00nh9x179']]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t xml:space="preserve">Samara State University Economics </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['samara state universit economics']</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/02wsba348']]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Universidad Cientifica del Sur Lima, Peru</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['universidad cientifica del sur']</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/04xr5we72']]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Universidad Tecnica Machala, Programa maestria en Medicina Veterinaria, mencion Clinica y Cirugia Pequenas Especies Machala, El Oro, Ecuador RenatoVetDerm Davie, Florida, Estados Unidos America</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['universidad tecnica machala']</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/036zk8k10']]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain</t>
+          <t>Peng Cheng Laboratory,Shenzhen,China</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['peng cheng laboratory']</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/03qdqbt06']]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>J Perianez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Department Plant Biology, University Illinois, Urbana 61801, USA</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['universit illinois']</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/047426m28']]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>From Department Cardiovascular Medicine, School Medical Sciences , Department Biophysics, Faculty Pharmaceutical Sciences , Kyushu University, Fukuoka, Japan</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['kyushu universit']</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/03m60k875', 'https://ror.org/00p4k0j84']]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
+          <t>Graduate School Social Sciences, Waseda University, Japan</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>['hospital universit fundacion jimenez diaz']</t>
+          <t>['waseda universit']</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>[['https://ror.org/049nvyb15']]</t>
+          <t>[['https://ror.org/00ntfnx83']]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Junior Fellow Society Fellows, Harvard University Cambridge, MA USA</t>
+          <t>Faculty Social Sciences, Waseda University, Japan</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>['cambridge universit']</t>
+          <t>['waseda universit']</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>[['https://ror.org/013meh722']]</t>
+          <t>[['https://ror.org/00ntfnx83']]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Postdoctoral fellow MandelScholion Research Center, Hebrew University Jerusalem Jerusalem Israel</t>
+          <t>A Hermosin , Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>['hebrew universit jerusalem']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03qxff017']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Department Gynecology, Womens Hospital, School Medicine, Zhejiang University, Hangzhou 310006, China</t>
+          <t>J Flores, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>['zhejiang universit']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00a2xv884']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Lecturer, Department Government Politics , University College Cork , Ireland</t>
+          <t>E Santos, Interventional Radiology, Memorial Sloan Kettering Cancer Center, New York, United States</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>['universit college cork']</t>
+          <t>['memorial sloan kettering cancer center']</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03265fv13']]</t>
+          <t>[['https://ror.org/02yrq0923']]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Director, Centre Local Regional Governance , University College Cork , Ireland</t>
+          <t>J Perianez, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>['universit college cork']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03265fv13']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PhD candidate, Department Government Politics , University College Cork , Ireland</t>
+          <t>A Villalba, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>['universit college cork']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03265fv13']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>School Sport, Exercise Health Sciences, Loughborough University, Loughborough, UK</t>
+          <t>M Gargallo, Endocrinology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>['loughborough universit']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04vg4w365']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Laboratory Plant Molecular Biology, Rockefeller University, New York, New York 100216399</t>
+          <t>J Amorim, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>['rockefeller universit']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0420db125']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>National Heart Centre, Singapore</t>
+          <t>E Daguer, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, Spain</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>['national heart centre singapore']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04f8k9513']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>National University Hospital, Singapore</t>
+          <t>E Crespo Vallejo, Interventional Radiology, Hospital Universitario Fundacion Jimenez Diaz, Madrid, 28040, Spain</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>['national universit hospital']</t>
+          <t>['hospital universit fundacion jimenez diaz']</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04fp9fm22']]</t>
+          <t>[['https://ror.org/049nvyb15']]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Department Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511</t>
+          <t>Postdoctoral fellow MandelScholion Research Center, Hebrew University Jerusalem Jerusalem Israel</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>['yale universit']</t>
+          <t>['hebrew universit jerusalem']</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03v76x132']]</t>
+          <t>[['https://ror.org/03qxff017']]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Higher Colleges Technology,Faculty Engineering Technology Science,Dubai,United Arab Emirates</t>
+          <t>Junior Fellow Society Fellows, Harvard University Cambridge, MA USA</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>['higher colleges technology']</t>
+          <t>['harvard universit']</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>[['https://ror.org/00qmy9z88']]</t>
+          <t>[['https://ror.org/03vek6s52', 'https://ror.org/006v7bf86']]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Lebanese University,Faculty Engineering,Tripoli,Lebanon</t>
+          <t>Department Gynecology, Womens Hospital, School Medicine, Zhejiang University, Hangzhou 310006, China</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>['lebanese universit']</t>
+          <t>['zhejiang universit']</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05x6qnc69']]</t>
+          <t>[['https://ror.org/00a2xv884']]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Associate Professor, Dept Energy Systems Engineering, Technology Faculty, Karabuk Univ, Iron Steel Campus, Karabuk 78050, Turkey ORCID </t>
+          <t>PhD candidate, Department Government Politics , University College Cork , Ireland</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>['karabuk universit']</t>
+          <t>['universit college cork']</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04wy7gp54']]</t>
+          <t>[['https://ror.org/03265fv13']]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Department Biology Center Cancer Research, Massachusetts Institute Technology From , Cambridge, Massachusetts 02139</t>
+          <t>Lecturer, Department Government Politics , University College Cork , Ireland</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>['massachusetts institute technology']</t>
+          <t>['universit college cork']</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>[['https://ror.org/042nb2s44']]</t>
+          <t>[['https://ror.org/03265fv13']]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea</t>
+          <t>Director, Centre Local Regional Governance , University College Cork , Ireland</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>['sungkyunkwan universit']</t>
+          <t>['universit college cork']</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04q78tk20']]</t>
+          <t>[['https://ror.org/03265fv13']]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Tohoku University</t>
+          <t>School Sport, Exercise Health Sciences, Loughborough University, Loughborough, UK</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>['tohoku universit']</t>
+          <t>['loughborough universit']</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01dq60k83']]</t>
+          <t>[['https://ror.org/04vg4w365']]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Tokyo Institute Technology</t>
+          <t>Laboratory Plant Molecular Biology, Rockefeller University, New York, New York 100216399</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>['tokyo institute technology']</t>
+          <t>['rockefeller universit']</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0112mx960']]</t>
+          <t>[['https://ror.org/0420db125']]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Department Mathematics, Shaoxing University, Shaoxing 312000, P R China</t>
+          <t>National University Hospital, Singapore</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>['shaoxing universit']</t>
+          <t>['national universit hospital']</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0435tej63']]</t>
+          <t>[['https://ror.org/04fp9fm22']]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Department Microbiology, Washington University School Medicine From , St Louis, Missouri 63110</t>
+          <t>National Heart Centre, Singapore</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>['universit washington school medicine']</t>
+          <t>['national heart centre singapore']</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03ymk3103']]</t>
+          <t>[['https://ror.org/04f8k9513']]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Department Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States</t>
+          <t>Department Biology, Osborn Memorial Laboratories, Yale University, New Haven, Connecticut 06511</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>['loyola universit medical center']</t>
+          <t>['yale universit']</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05xcyt367']]</t>
+          <t>[['https://ror.org/03v76x132']]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Department Radiology, Loyola University Medical Center, Maywood, Illinois, United States</t>
+          <t>Lebanese University,Faculty Engineering,Tripoli,Lebanon</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>['loyola universit medical center']</t>
+          <t>['lebanese universit']</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05xcyt367']]</t>
+          <t>[['https://ror.org/05x6qnc69']]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Departments Pathology, Dermatology, Medicine, Tufts University School Medicine From , Boston, Massachusetts 02111</t>
+          <t>Higher Colleges Technology,Faculty Engineering Technology Science,Dubai,United Arab Emirates</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>['tufts universit']</t>
+          <t>['higher colleges technology']</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05wvpxv85']]</t>
+          <t>[['https://ror.org/00qmy9z88']]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Kahramanmaras Sutcu Imam Universitesi Ilahiyat Fakultesi</t>
+          <t xml:space="preserve">Associate Professor, Dept Energy Systems Engineering, Technology Faculty, Karabuk Univ, Iron Steel Campus, Karabuk 78050, Turkey ORCID </t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit']</t>
+          <t>['karabuk universit']</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03gn5cg19']]</t>
+          <t>[['https://ror.org/04wy7gp54']]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>KAHRAMANMARAS SUTCU IMAM UNIVERSITESI</t>
+          <t>Department Biology Center Cancer Research, Massachusetts Institute Technology From , Cambridge, Massachusetts 02139</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>['kahramanmaras sutcu imam universit']</t>
+          <t>['massachusetts institute technology']</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03gn5cg19']]</t>
+          <t>[['https://ror.org/042nb2s44']]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>School Microelectronics, Northwestern Polytechnical University,Xix0027an,China</t>
+          <t>Artificial Intelligence School, Sungkyunkwan University,Suwon,South Korea</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>['northwestern polytechnical universit']</t>
+          <t>['sungkyunkwan universit']</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01y0j0j86']]</t>
+          <t>[['https://ror.org/04q78tk20']]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Duke Clinical Research Institute, Duke University Medical Center, Durham, NC</t>
+          <t>Tokyo Institute Technology</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>['duke universit medical center']</t>
+          <t>['tokyo institute technology']</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03njmea73', 'https://ror.org/04bct7p84']]</t>
+          <t>[['https://ror.org/0112mx960']]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Department Pediatrics, University Tennessee, Memphis 38163</t>
+          <t>Tohoku University</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>['universit tennessee']</t>
+          <t>['tohoku universit']</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>[['https://ror.org/020f3ap87', 'https://ror.org/0563nxn44', 'https://ror.org/00xzqjh13']]</t>
+          <t>[['https://ror.org/01dq60k83']]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Department Pathology Laboratory Medicine, University Pennsylvania School Medicine, Philadelphia 191046082</t>
+          <t>Department Mathematics, Shaoxing University, Shaoxing 312000, P R China</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>['universit pennsylvania']</t>
+          <t>['shaoxing universit']</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04p491231', 'https://ror.org/00b30xv10']]</t>
+          <t>[['https://ror.org/0435tej63']]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Department Pathology, Harvard Medical School From , La Jolla, California , , Boston, Massachusetts</t>
+          <t>Department Microbiology, Washington University School Medicine From , St Louis, Missouri 63110</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>['harvard medical school']</t>
+          <t>['universit washington school medicine']</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03wevmz92']]</t>
+          <t>[['https://ror.org/03ymk3103']]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Ehime University</t>
+          <t>Department Radiology, Loyola University Medical Center, Maywood, Illinois, United States</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>['ehime universit']</t>
+          <t>['loyola universit medical center']</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>[['https://ror.org/017hkng22']]</t>
+          <t>[['https://ror.org/05xcyt367']]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Qassim University</t>
+          <t>Department Medical Oncology, Loyola University Medical Center, Maywood, Illinois, United States</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>['qassim universit']</t>
+          <t>['loyola universit medical center']</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01wsfe280']]</t>
+          <t>[['https://ror.org/05xcyt367']]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Department Physics, Pukyong National University</t>
+          <t>Departments Pathology, Dermatology, Medicine, Tufts University School Medicine From , Boston, Massachusetts 02111</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>['pukyong national universit']</t>
+          <t>['tufts universit']</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0433kqc49']]</t>
+          <t>[['https://ror.org/05wvpxv85']]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Department Electrical Engineering, Tongmyong University</t>
+          <t>Kahramanmaras Sutcu Imam Universitesi Ilahiyat Fakultesi</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>['tongmyong universit']</t>
+          <t>['kahramanmaras sutcu imam universit']</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>[['https://ror.org/01asa8g02']]</t>
+          <t>[['https://ror.org/03gn5cg19']]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Eastern minnesota university</t>
+          <t>KAHRAMANMARAS SUTCU IMAM UNIVERSITESI</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>['universit minnesota']</t>
+          <t>['kahramanmaras sutcu imam universit']</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>[['https://ror.org/017zqws13']]</t>
+          <t>[['https://ror.org/03gn5cg19']]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Amur State University</t>
+          <t>School Microelectronics, Northwestern Polytechnical University,Xix0027an,China</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>['amur state universit']</t>
+          <t>['northwestern polytechnical universit']</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03fws8b96']]</t>
+          <t>[['https://ror.org/01y0j0j86']]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Department Forest Conservation Sciences, Faculty Forestry, Forest Sciences Centre, University British Columbia , Vancouver, BC V6T 1Z4 , Canada</t>
+          <t>Duke Clinical Research Institute, Duke University Medical Center, Durham, NC</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>['universit british columbia']</t>
+          <t>['duke universit medical center']</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>[['https://ror.org/03rmrcq20']]</t>
+          <t>[['https://ror.org/03njmea73', 'https://ror.org/04bct7p84']]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Key Laboratory Genetics Breeding Forest Trees Ornamental Plants, Ministry Education, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China</t>
+          <t>Department Pediatrics, University Tennessee, Memphis 38163</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>['beijing forestry universit']</t>
+          <t>['universit tennessee']</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04xv2pc41']]</t>
+          <t>[['https://ror.org/020f3ap87', 'https://ror.org/0563nxn44', 'https://ror.org/00xzqjh13']]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>National Engineering Laboratory Tree Breeding, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China</t>
+          <t>Department Pathology Laboratory Medicine, University Pennsylvania School Medicine, Philadelphia 191046082</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>['beijing forestry universit']</t>
+          <t>['universit pennsylvania']</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04xv2pc41']]</t>
+          <t>[['https://ror.org/04p491231', 'https://ror.org/00b30xv10']]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Veer Narmad South Gujarat University, India</t>
+          <t>Department Pathology, Harvard Medical School From , La Jolla, California , , Boston, Massachusetts</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>['veer narmad south gujarat universit']</t>
+          <t>['harvard medical school']</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[['https://ror.org/04frnz493']]</t>
+          <t>[['https://ror.org/03wevmz92']]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Department Medicine, University California San Diego, La Jolla CA 92093</t>
+          <t>Ehime University</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>['universit california san diego']</t>
+          <t>['ehime universit']</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[['https://ror.org/0168r3w48']]</t>
+          <t>[['https://ror.org/017hkng22']]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Division Molecular Immunology, La Jolla Institute Allergy Immunology, San Diego, CA 92121</t>
+          <t>Qassim University</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>['la jolla institute allergy immunology']</t>
+          <t>['qassim universit']</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[['https://ror.org/05vkpd318']]</t>
+          <t>[['https://ror.org/01wsfe280']]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Institute Biochemistry, University Lausanne, Epalinges, Switzerland</t>
+          <t>Department Physics, Pukyong National University</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>['universit lausanne']</t>
+          <t>['pukyong national universit']</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>[['https://ror.org/019whta54']]</t>
+          <t>[['https://ror.org/0433kqc49']]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
+          <t>Department Electrical Engineering, Tongmyong University</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>['tongmyong universit']</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/01asa8g02']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Eastern minnesota university</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>['eastern universit']</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/04txhk134']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Amur State University</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>['amur state universit']</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/03fws8b96']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Key Laboratory Genetics Breeding Forest Trees Ornamental Plants, Ministry Education, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>['beijing forestry universit']</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/04xv2pc41']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Department Forest Conservation Sciences, Faculty Forestry, Forest Sciences Centre, University British Columbia , Vancouver, BC V6T 1Z4 , Canada</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>['universit british columbia']</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/03rmrcq20']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>National Engineering Laboratory Tree Breeding, College Biological Sciences Technology, Beijing Forestry University , No 35, Qinghua East Road, Beijing 100083, P R China</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>['beijing forestry universit']</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/04xv2pc41']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Veer Narmad South Gujarat University, India</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>['veer narmad south gujarat universit']</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/04frnz493']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Institute Biochemistry, University Lausanne, Epalinges, Switzerland</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>['universit lausanne']</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/019whta54']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Division Molecular Immunology, La Jolla Institute Allergy Immunology, San Diego, CA 92121</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>['la jolla institute allergy immunology']</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/05vkpd318']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Department Medicine, University California San Diego, La Jolla CA 92093</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>['universit california san diego medical center']</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>[['https://ror.org/03aw5sn18']]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
           <t>Department Molecular Pharmacology Biological Chemistry, Northwestern University, 303 East Chicago Avenue, Chicago, Illinois 60611</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B316" t="inlineStr">
         <is>
           <t>['northwestern universit']</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C316" t="inlineStr">
         <is>
           <t>[['https://ror.org/00y7snj24', 'https://ror.org/04edns687', 'https://ror.org/04xf6c905', 'https://ror.org/01bry7z39', 'https://ror.org/04t5xt781', 'https://ror.org/019t2rq07', 'https://ror.org/012wxa772', 'https://ror.org/000e0be47']]</t>
         </is>
